--- a/data/salaries.xlsx
+++ b/data/salaries.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10611"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10512"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/ekl/Documents/github/interviewing-your-data-with-R/data/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/thornbur/Documents/Default Working Directory for R/teaching-guide-R123-24IRE/data/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3D0F4B39-DF0C-EF45-8F3B-D3C5BA30E4DF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{077CC06A-05E0-5045-8DAF-B8A70B01EB61}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="760" windowWidth="30240" windowHeight="18880" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -5288,19 +5288,19 @@
     <t>job_title</t>
   </si>
   <si>
-    <t>total_comp</t>
-  </si>
-  <si>
-    <t>hourly_rate</t>
-  </si>
-  <si>
-    <t>salary_2021</t>
-  </si>
-  <si>
     <t/>
   </si>
   <si>
-    <t>overtime_oncall</t>
+    <t>HOURLY_RATE</t>
+  </si>
+  <si>
+    <t>2021 salary</t>
+  </si>
+  <si>
+    <t>overtime/oncall</t>
+  </si>
+  <si>
+    <t>total comp</t>
   </si>
 </sst>
 </file>
@@ -5321,6 +5321,7 @@
       <sz val="11"/>
       <color theme="1"/>
       <name val="Calibri"/>
+      <family val="2"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -5380,8 +5381,8 @@
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0"/>
   </cellStyleXfs>
   <cellXfs count="24">
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="14" fontId="3" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" wrapText="1"/>
     </xf>
@@ -5729,7 +5730,7 @@
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="G1202" sqref="G1202"/>
+      <selection pane="bottomLeft" activeCell="C10" sqref="C10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15"/>
@@ -6829,10 +6830,10 @@
         <v>1749</v>
       </c>
       <c r="E1" s="3" t="s">
-        <v>1750</v>
+        <v>1754</v>
       </c>
       <c r="F1" s="3" t="s">
-        <v>1754</v>
+        <v>1753</v>
       </c>
       <c r="G1" s="21" t="s">
         <v>1751</v>
@@ -7021,7 +7022,7 @@
       </c>
       <c r="F9" s="9"/>
       <c r="G9" s="22" t="s">
-        <v>1753</v>
+        <v>1750</v>
       </c>
       <c r="H9" s="13">
         <v>37176.300000000003</v>
@@ -7045,7 +7046,7 @@
       </c>
       <c r="F10" s="9"/>
       <c r="G10" s="22" t="s">
-        <v>1753</v>
+        <v>1750</v>
       </c>
       <c r="H10" s="13">
         <v>49294.45</v>
@@ -7117,7 +7118,7 @@
       </c>
       <c r="F13" s="9"/>
       <c r="G13" s="22" t="s">
-        <v>1753</v>
+        <v>1750</v>
       </c>
       <c r="H13" s="10">
         <v>45721.57</v>
@@ -7141,7 +7142,7 @@
       </c>
       <c r="F14" s="9"/>
       <c r="G14" s="22" t="s">
-        <v>1753</v>
+        <v>1750</v>
       </c>
       <c r="H14" s="10">
         <v>44405.09</v>
@@ -7375,7 +7376,7 @@
       </c>
       <c r="F24" s="9"/>
       <c r="G24" s="22" t="s">
-        <v>1753</v>
+        <v>1750</v>
       </c>
       <c r="H24" s="10">
         <v>74391.820000000007</v>
@@ -7423,7 +7424,7 @@
       </c>
       <c r="F26" s="9"/>
       <c r="G26" s="22" t="s">
-        <v>1753</v>
+        <v>1750</v>
       </c>
       <c r="H26" s="13">
         <v>635</v>
@@ -7447,7 +7448,7 @@
       </c>
       <c r="F27" s="9"/>
       <c r="G27" s="22" t="s">
-        <v>1753</v>
+        <v>1750</v>
       </c>
       <c r="H27" s="13">
         <v>635</v>
@@ -7471,7 +7472,7 @@
       </c>
       <c r="F28" s="9"/>
       <c r="G28" s="22" t="s">
-        <v>1753</v>
+        <v>1750</v>
       </c>
       <c r="H28" s="13">
         <v>635</v>
@@ -7495,7 +7496,7 @@
       </c>
       <c r="F29" s="9"/>
       <c r="G29" s="22" t="s">
-        <v>1753</v>
+        <v>1750</v>
       </c>
       <c r="H29" s="13">
         <v>635</v>
@@ -7519,7 +7520,7 @@
       </c>
       <c r="F30" s="9"/>
       <c r="G30" s="22" t="s">
-        <v>1753</v>
+        <v>1750</v>
       </c>
       <c r="H30" s="13">
         <v>635</v>
@@ -7543,7 +7544,7 @@
       </c>
       <c r="F31" s="9"/>
       <c r="G31" s="22" t="s">
-        <v>1753</v>
+        <v>1750</v>
       </c>
       <c r="H31" s="10">
         <v>100555.23</v>
@@ -7567,7 +7568,7 @@
       </c>
       <c r="F32" s="9"/>
       <c r="G32" s="22" t="s">
-        <v>1753</v>
+        <v>1750</v>
       </c>
       <c r="H32" s="10">
         <v>52363</v>
@@ -7591,7 +7592,7 @@
       </c>
       <c r="F33" s="9"/>
       <c r="G33" s="22" t="s">
-        <v>1753</v>
+        <v>1750</v>
       </c>
       <c r="H33" s="10">
         <v>45731.83</v>
@@ -7637,7 +7638,7 @@
       </c>
       <c r="F35" s="9"/>
       <c r="G35" s="22" t="s">
-        <v>1753</v>
+        <v>1750</v>
       </c>
       <c r="H35" s="10">
         <v>48069.599999999999</v>
@@ -7661,7 +7662,7 @@
       </c>
       <c r="F36" s="9"/>
       <c r="G36" s="22" t="s">
-        <v>1753</v>
+        <v>1750</v>
       </c>
       <c r="H36" s="10">
         <v>60927.55</v>
@@ -7685,7 +7686,7 @@
       </c>
       <c r="F37" s="9"/>
       <c r="G37" s="22" t="s">
-        <v>1753</v>
+        <v>1750</v>
       </c>
       <c r="H37" s="10">
         <v>40394.57</v>
@@ -7709,7 +7710,7 @@
       </c>
       <c r="F38" s="9"/>
       <c r="G38" s="22" t="s">
-        <v>1753</v>
+        <v>1750</v>
       </c>
       <c r="H38" s="10">
         <v>56963.28</v>
@@ -7733,7 +7734,7 @@
       </c>
       <c r="F39" s="9"/>
       <c r="G39" s="22" t="s">
-        <v>1753</v>
+        <v>1750</v>
       </c>
       <c r="H39" s="10">
         <v>56871.09</v>
@@ -7779,7 +7780,7 @@
       </c>
       <c r="F41" s="9"/>
       <c r="G41" s="22" t="s">
-        <v>1753</v>
+        <v>1750</v>
       </c>
       <c r="H41" s="10">
         <v>60038</v>
@@ -7847,7 +7848,7 @@
       </c>
       <c r="F44" s="9"/>
       <c r="G44" s="22" t="s">
-        <v>1753</v>
+        <v>1750</v>
       </c>
       <c r="H44" s="10">
         <v>53060.4</v>
@@ -7893,7 +7894,7 @@
       </c>
       <c r="F46" s="9"/>
       <c r="G46" s="22" t="s">
-        <v>1753</v>
+        <v>1750</v>
       </c>
       <c r="H46" s="10">
         <v>48445.21</v>
@@ -7917,7 +7918,7 @@
       </c>
       <c r="F47" s="9"/>
       <c r="G47" s="22" t="s">
-        <v>1753</v>
+        <v>1750</v>
       </c>
       <c r="H47" s="10">
         <v>43083.46</v>
@@ -7941,7 +7942,7 @@
       </c>
       <c r="F48" s="9"/>
       <c r="G48" s="22" t="s">
-        <v>1753</v>
+        <v>1750</v>
       </c>
       <c r="H48" s="10">
         <v>42392.95</v>
@@ -7965,7 +7966,7 @@
       </c>
       <c r="F49" s="9"/>
       <c r="G49" s="22" t="s">
-        <v>1753</v>
+        <v>1750</v>
       </c>
       <c r="H49" s="10">
         <v>59000</v>
@@ -7989,7 +7990,7 @@
       </c>
       <c r="F50" s="9"/>
       <c r="G50" s="22" t="s">
-        <v>1753</v>
+        <v>1750</v>
       </c>
       <c r="H50" s="10">
         <v>80121.2</v>
@@ -8013,7 +8014,7 @@
       </c>
       <c r="F51" s="9"/>
       <c r="G51" s="22" t="s">
-        <v>1753</v>
+        <v>1750</v>
       </c>
       <c r="H51" s="10">
         <v>52265.61</v>
@@ -8037,7 +8038,7 @@
       </c>
       <c r="F52" s="9"/>
       <c r="G52" s="22" t="s">
-        <v>1753</v>
+        <v>1750</v>
       </c>
       <c r="H52" s="10">
         <v>79000</v>
@@ -8061,7 +8062,7 @@
       </c>
       <c r="F53" s="9"/>
       <c r="G53" s="22" t="s">
-        <v>1753</v>
+        <v>1750</v>
       </c>
       <c r="H53" s="10">
         <v>50681.95</v>
@@ -8085,7 +8086,7 @@
       </c>
       <c r="F54" s="9"/>
       <c r="G54" s="22" t="s">
-        <v>1753</v>
+        <v>1750</v>
       </c>
       <c r="H54" s="10">
         <v>64326.35</v>
@@ -8109,7 +8110,7 @@
       </c>
       <c r="F55" s="9"/>
       <c r="G55" s="22" t="s">
-        <v>1753</v>
+        <v>1750</v>
       </c>
       <c r="H55" s="10">
         <v>49335.08</v>
@@ -8133,7 +8134,7 @@
       </c>
       <c r="F56" s="9"/>
       <c r="G56" s="22" t="s">
-        <v>1753</v>
+        <v>1750</v>
       </c>
       <c r="H56" s="10">
         <v>81856.03</v>
@@ -8157,7 +8158,7 @@
       </c>
       <c r="F57" s="9"/>
       <c r="G57" s="22" t="s">
-        <v>1753</v>
+        <v>1750</v>
       </c>
       <c r="H57" s="10">
         <v>61525.97</v>
@@ -8205,7 +8206,7 @@
       </c>
       <c r="F59" s="9"/>
       <c r="G59" s="22" t="s">
-        <v>1753</v>
+        <v>1750</v>
       </c>
       <c r="H59" s="10">
         <v>42369.440000000002</v>
@@ -8229,7 +8230,7 @@
       </c>
       <c r="F60" s="9"/>
       <c r="G60" s="22" t="s">
-        <v>1753</v>
+        <v>1750</v>
       </c>
       <c r="H60" s="10">
         <v>47589.46</v>
@@ -8253,7 +8254,7 @@
       </c>
       <c r="F61" s="9"/>
       <c r="G61" s="22" t="s">
-        <v>1753</v>
+        <v>1750</v>
       </c>
       <c r="H61" s="10">
         <v>107445.66</v>
@@ -8277,7 +8278,7 @@
       </c>
       <c r="F62" s="9"/>
       <c r="G62" s="22" t="s">
-        <v>1753</v>
+        <v>1750</v>
       </c>
       <c r="H62" s="10">
         <v>34195.199999999997</v>
@@ -8301,7 +8302,7 @@
       </c>
       <c r="F63" s="9"/>
       <c r="G63" s="22" t="s">
-        <v>1753</v>
+        <v>1750</v>
       </c>
       <c r="H63" s="10">
         <v>18672.939999999999</v>
@@ -8325,7 +8326,7 @@
       </c>
       <c r="F64" s="9"/>
       <c r="G64" s="22" t="s">
-        <v>1753</v>
+        <v>1750</v>
       </c>
       <c r="H64" s="10">
         <v>67699.77</v>
@@ -8349,7 +8350,7 @@
       </c>
       <c r="F65" s="9"/>
       <c r="G65" s="22" t="s">
-        <v>1753</v>
+        <v>1750</v>
       </c>
       <c r="H65" s="10">
         <v>87210</v>
@@ -8373,7 +8374,7 @@
       </c>
       <c r="F66" s="9"/>
       <c r="G66" s="22" t="s">
-        <v>1753</v>
+        <v>1750</v>
       </c>
       <c r="H66" s="10">
         <v>18672.939999999999</v>
@@ -8397,7 +8398,7 @@
       </c>
       <c r="F67" s="9"/>
       <c r="G67" s="22" t="s">
-        <v>1753</v>
+        <v>1750</v>
       </c>
       <c r="H67" s="10">
         <v>18672.939999999999</v>
@@ -8421,7 +8422,7 @@
       </c>
       <c r="F68" s="9"/>
       <c r="G68" s="22" t="s">
-        <v>1753</v>
+        <v>1750</v>
       </c>
       <c r="H68" s="10">
         <v>18672.939999999999</v>
@@ -8445,7 +8446,7 @@
       </c>
       <c r="F69" s="9"/>
       <c r="G69" s="22" t="s">
-        <v>1753</v>
+        <v>1750</v>
       </c>
       <c r="H69" s="10">
         <v>18672.939999999999</v>
@@ -8469,7 +8470,7 @@
       </c>
       <c r="F70" s="9"/>
       <c r="G70" s="22" t="s">
-        <v>1753</v>
+        <v>1750</v>
       </c>
       <c r="H70" s="10">
         <v>19472.96</v>
@@ -8493,7 +8494,7 @@
       </c>
       <c r="F71" s="9"/>
       <c r="G71" s="22" t="s">
-        <v>1753</v>
+        <v>1750</v>
       </c>
       <c r="H71" s="10">
         <v>19672.900000000001</v>
@@ -8517,7 +8518,7 @@
       </c>
       <c r="F72" s="9"/>
       <c r="G72" s="22" t="s">
-        <v>1753</v>
+        <v>1750</v>
       </c>
       <c r="H72" s="10">
         <v>18672.939999999999</v>
@@ -8541,7 +8542,7 @@
       </c>
       <c r="F73" s="9"/>
       <c r="G73" s="22" t="s">
-        <v>1753</v>
+        <v>1750</v>
       </c>
       <c r="H73" s="10">
         <v>18672.939999999999</v>
@@ -8587,7 +8588,7 @@
       </c>
       <c r="F75" s="9"/>
       <c r="G75" s="22" t="s">
-        <v>1753</v>
+        <v>1750</v>
       </c>
       <c r="H75" s="10">
         <v>54060</v>
@@ -8611,7 +8612,7 @@
       </c>
       <c r="F76" s="9"/>
       <c r="G76" s="22" t="s">
-        <v>1753</v>
+        <v>1750</v>
       </c>
       <c r="H76" s="13">
         <v>100555.32</v>
@@ -8635,7 +8636,7 @@
       </c>
       <c r="F77" s="9"/>
       <c r="G77" s="22" t="s">
-        <v>1753</v>
+        <v>1750</v>
       </c>
       <c r="H77" s="13">
         <v>51434.32</v>
@@ -8659,7 +8660,7 @@
       </c>
       <c r="F78" s="9"/>
       <c r="G78" s="22" t="s">
-        <v>1753</v>
+        <v>1750</v>
       </c>
       <c r="H78" s="13">
         <v>59670</v>
@@ -8683,7 +8684,7 @@
       </c>
       <c r="F79" s="9"/>
       <c r="G79" s="22" t="s">
-        <v>1753</v>
+        <v>1750</v>
       </c>
       <c r="H79" s="13">
         <v>40392</v>
@@ -8707,7 +8708,7 @@
       </c>
       <c r="F80" s="9"/>
       <c r="G80" s="22" t="s">
-        <v>1753</v>
+        <v>1750</v>
       </c>
       <c r="H80" s="10">
         <v>54060</v>
@@ -8731,7 +8732,7 @@
       </c>
       <c r="F81" s="9"/>
       <c r="G81" s="22" t="s">
-        <v>1753</v>
+        <v>1750</v>
       </c>
       <c r="H81" s="10">
         <v>56746.05</v>
@@ -8755,7 +8756,7 @@
       </c>
       <c r="F82" s="9"/>
       <c r="G82" s="22" t="s">
-        <v>1753</v>
+        <v>1750</v>
       </c>
       <c r="H82" s="10">
         <v>67772.240000000005</v>
@@ -8779,7 +8780,7 @@
       </c>
       <c r="F83" s="9"/>
       <c r="G83" s="22" t="s">
-        <v>1753</v>
+        <v>1750</v>
       </c>
       <c r="H83" s="10">
         <v>103446.36</v>
@@ -8803,7 +8804,7 @@
       </c>
       <c r="F84" s="9"/>
       <c r="G84" s="22" t="s">
-        <v>1753</v>
+        <v>1750</v>
       </c>
       <c r="H84" s="10">
         <v>77804.58</v>
@@ -8827,7 +8828,7 @@
       </c>
       <c r="F85" s="9"/>
       <c r="G85" s="22" t="s">
-        <v>1753</v>
+        <v>1750</v>
       </c>
       <c r="H85" s="10">
         <v>49835.16</v>
@@ -8851,7 +8852,7 @@
       </c>
       <c r="F86" s="9"/>
       <c r="G86" s="22" t="s">
-        <v>1753</v>
+        <v>1750</v>
       </c>
       <c r="H86" s="10">
         <v>46544.58</v>
@@ -8875,7 +8876,7 @@
       </c>
       <c r="F87" s="9"/>
       <c r="G87" s="22" t="s">
-        <v>1753</v>
+        <v>1750</v>
       </c>
       <c r="H87" s="10">
         <v>81899.899999999994</v>
@@ -8899,7 +8900,7 @@
       </c>
       <c r="F88" s="9"/>
       <c r="G88" s="22" t="s">
-        <v>1753</v>
+        <v>1750</v>
       </c>
       <c r="H88" s="10">
         <v>42300</v>
@@ -8923,7 +8924,7 @@
       </c>
       <c r="F89" s="9"/>
       <c r="G89" s="22" t="s">
-        <v>1753</v>
+        <v>1750</v>
       </c>
       <c r="H89" s="10">
         <v>55136.959999999999</v>
@@ -8947,7 +8948,7 @@
       </c>
       <c r="F90" s="9"/>
       <c r="G90" s="22" t="s">
-        <v>1753</v>
+        <v>1750</v>
       </c>
       <c r="H90" s="10">
         <v>44341.01</v>
@@ -8971,7 +8972,7 @@
       </c>
       <c r="F91" s="9"/>
       <c r="G91" s="22" t="s">
-        <v>1753</v>
+        <v>1750</v>
       </c>
       <c r="H91" s="10">
         <v>51415.53</v>
@@ -8995,7 +8996,7 @@
       </c>
       <c r="F92" s="9"/>
       <c r="G92" s="22" t="s">
-        <v>1753</v>
+        <v>1750</v>
       </c>
       <c r="H92" s="10">
         <v>70468.5</v>
@@ -9043,7 +9044,7 @@
       </c>
       <c r="F94" s="9"/>
       <c r="G94" s="22" t="s">
-        <v>1753</v>
+        <v>1750</v>
       </c>
       <c r="H94" s="10">
         <v>36899.870000000003</v>
@@ -9115,7 +9116,7 @@
         <v>1488.73</v>
       </c>
       <c r="G97" s="22" t="s">
-        <v>1753</v>
+        <v>1750</v>
       </c>
       <c r="H97" s="10">
         <v>55125</v>
@@ -9141,7 +9142,7 @@
         <v>11768.43</v>
       </c>
       <c r="G98" s="22" t="s">
-        <v>1753</v>
+        <v>1750</v>
       </c>
       <c r="H98" s="13">
         <v>66876</v>
@@ -9167,7 +9168,7 @@
         <v>4738.67</v>
       </c>
       <c r="G99" s="22" t="s">
-        <v>1753</v>
+        <v>1750</v>
       </c>
       <c r="H99" s="13">
         <v>60475</v>
@@ -9193,7 +9194,7 @@
         <v>1124.82</v>
       </c>
       <c r="G100" s="22" t="s">
-        <v>1753</v>
+        <v>1750</v>
       </c>
       <c r="H100" s="13">
         <v>60824</v>
@@ -9219,7 +9220,7 @@
         <v>1380.55</v>
       </c>
       <c r="G101" s="22" t="s">
-        <v>1753</v>
+        <v>1750</v>
       </c>
       <c r="H101" s="13">
         <v>58025</v>
@@ -9245,7 +9246,7 @@
         <v>1404.76</v>
       </c>
       <c r="G102" s="22" t="s">
-        <v>1753</v>
+        <v>1750</v>
       </c>
       <c r="H102" s="13">
         <v>58684</v>
@@ -9271,7 +9272,7 @@
         <v>1505.26</v>
       </c>
       <c r="G103" s="22" t="s">
-        <v>1753</v>
+        <v>1750</v>
       </c>
       <c r="H103" s="10">
         <v>59225</v>
@@ -9297,7 +9298,7 @@
         <v>3809.41</v>
       </c>
       <c r="G104" s="22" t="s">
-        <v>1753</v>
+        <v>1750</v>
       </c>
       <c r="H104" s="13">
         <v>61734</v>
@@ -9323,7 +9324,7 @@
         <v>2181.8000000000002</v>
       </c>
       <c r="G105" s="22" t="s">
-        <v>1753</v>
+        <v>1750</v>
       </c>
       <c r="H105" s="10">
         <v>60484</v>
@@ -9349,7 +9350,7 @@
         <v>1164.0999999999999</v>
       </c>
       <c r="G106" s="22" t="s">
-        <v>1753</v>
+        <v>1750</v>
       </c>
       <c r="H106" s="10">
         <v>55825</v>
@@ -9375,7 +9376,7 @@
         <v>3529.07</v>
       </c>
       <c r="G107" s="22" t="s">
-        <v>1753</v>
+        <v>1750</v>
       </c>
       <c r="H107" s="10">
         <v>49477</v>
@@ -9401,7 +9402,7 @@
         <v>790.13</v>
       </c>
       <c r="G108" s="22" t="s">
-        <v>1753</v>
+        <v>1750</v>
       </c>
       <c r="H108" s="10">
         <v>57725</v>
@@ -9427,7 +9428,7 @@
         <v>1167.45</v>
       </c>
       <c r="G109" s="22" t="s">
-        <v>1753</v>
+        <v>1750</v>
       </c>
       <c r="H109" s="10">
         <v>63335</v>
@@ -9453,7 +9454,7 @@
         <v>5697.4</v>
       </c>
       <c r="G110" s="22" t="s">
-        <v>1753</v>
+        <v>1750</v>
       </c>
       <c r="H110" s="10">
         <v>59425</v>
@@ -9479,7 +9480,7 @@
         <v>3823.43</v>
       </c>
       <c r="G111" s="22" t="s">
-        <v>1753</v>
+        <v>1750</v>
       </c>
       <c r="H111" s="13">
         <v>63034</v>
@@ -9505,7 +9506,7 @@
         <v>1811.18</v>
       </c>
       <c r="G112" s="22" t="s">
-        <v>1753</v>
+        <v>1750</v>
       </c>
       <c r="H112" s="13">
         <v>60825</v>
@@ -9531,7 +9532,7 @@
         <v>1500</v>
       </c>
       <c r="G113" s="22" t="s">
-        <v>1753</v>
+        <v>1750</v>
       </c>
       <c r="H113" s="10">
         <v>62804</v>
@@ -9557,7 +9558,7 @@
         <v>1140.23</v>
       </c>
       <c r="G114" s="22" t="s">
-        <v>1753</v>
+        <v>1750</v>
       </c>
       <c r="H114" s="13">
         <v>59684</v>
@@ -9583,7 +9584,7 @@
         <v>321.8</v>
       </c>
       <c r="G115" s="22" t="s">
-        <v>1753</v>
+        <v>1750</v>
       </c>
       <c r="H115" s="13">
         <v>67568.800000000003</v>
@@ -9609,7 +9610,7 @@
         <v>2803.08</v>
       </c>
       <c r="G116" s="22" t="s">
-        <v>1753</v>
+        <v>1750</v>
       </c>
       <c r="H116" s="13">
         <v>59484</v>
@@ -9635,7 +9636,7 @@
         <v>2719.88</v>
       </c>
       <c r="G117" s="22" t="s">
-        <v>1753</v>
+        <v>1750</v>
       </c>
       <c r="H117" s="13">
         <v>58721</v>
@@ -9659,7 +9660,7 @@
       </c>
       <c r="F118" s="9"/>
       <c r="G118" s="22" t="s">
-        <v>1753</v>
+        <v>1750</v>
       </c>
       <c r="H118" s="13">
         <v>75990</v>
@@ -9685,7 +9686,7 @@
         <v>1291.69</v>
       </c>
       <c r="G119" s="22" t="s">
-        <v>1753</v>
+        <v>1750</v>
       </c>
       <c r="H119" s="13">
         <v>55725</v>
@@ -9711,7 +9712,7 @@
         <v>1026.8</v>
       </c>
       <c r="G120" s="22" t="s">
-        <v>1753</v>
+        <v>1750</v>
       </c>
       <c r="H120" s="10">
         <v>64532</v>
@@ -9735,7 +9736,7 @@
       </c>
       <c r="F121" s="9"/>
       <c r="G121" s="22" t="s">
-        <v>1753</v>
+        <v>1750</v>
       </c>
       <c r="H121" s="10">
         <v>58370.8</v>
@@ -9759,7 +9760,7 @@
       </c>
       <c r="F122" s="9"/>
       <c r="G122" s="22" t="s">
-        <v>1753</v>
+        <v>1750</v>
       </c>
       <c r="H122" s="13">
         <v>75990</v>
@@ -9785,7 +9786,7 @@
         <v>1489.98</v>
       </c>
       <c r="G123" s="22" t="s">
-        <v>1753</v>
+        <v>1750</v>
       </c>
       <c r="H123" s="10">
         <v>57825</v>
@@ -9811,7 +9812,7 @@
         <v>2499.79</v>
       </c>
       <c r="G124" s="22" t="s">
-        <v>1753</v>
+        <v>1750</v>
       </c>
       <c r="H124" s="13">
         <v>58825</v>
@@ -9837,7 +9838,7 @@
         <v>1326.46</v>
       </c>
       <c r="G125" s="22" t="s">
-        <v>1753</v>
+        <v>1750</v>
       </c>
       <c r="H125" s="13">
         <v>57816</v>
@@ -9863,7 +9864,7 @@
         <v>3795.66</v>
       </c>
       <c r="G126" s="22" t="s">
-        <v>1753</v>
+        <v>1750</v>
       </c>
       <c r="H126" s="13">
         <v>60970</v>
@@ -9889,7 +9890,7 @@
         <v>2100</v>
       </c>
       <c r="G127" s="22" t="s">
-        <v>1753</v>
+        <v>1750</v>
       </c>
       <c r="H127" s="10">
         <v>62804</v>
@@ -9915,7 +9916,7 @@
         <v>876.69</v>
       </c>
       <c r="G128" s="22" t="s">
-        <v>1753</v>
+        <v>1750</v>
       </c>
       <c r="H128" s="13">
         <v>59072</v>
@@ -9941,7 +9942,7 @@
         <v>951.81</v>
       </c>
       <c r="G129" s="22" t="s">
-        <v>1753</v>
+        <v>1750</v>
       </c>
       <c r="H129" s="10">
         <v>59825</v>
@@ -9967,7 +9968,7 @@
         <v>736.3</v>
       </c>
       <c r="G130" s="22" t="s">
-        <v>1753</v>
+        <v>1750</v>
       </c>
       <c r="H130" s="10">
         <v>66021.2</v>
@@ -9993,7 +9994,7 @@
         <v>961.92</v>
       </c>
       <c r="G131" s="22" t="s">
-        <v>1753</v>
+        <v>1750</v>
       </c>
       <c r="H131" s="13">
         <v>58425</v>
@@ -10019,7 +10020,7 @@
         <v>3005.99</v>
       </c>
       <c r="G132" s="22" t="s">
-        <v>1753</v>
+        <v>1750</v>
       </c>
       <c r="H132" s="10">
         <v>60925</v>
@@ -10045,7 +10046,7 @@
         <v>1225.31</v>
       </c>
       <c r="G133" s="22" t="s">
-        <v>1753</v>
+        <v>1750</v>
       </c>
       <c r="H133" s="13">
         <v>66284</v>
@@ -10071,7 +10072,7 @@
         <v>1145.69</v>
       </c>
       <c r="G134" s="22" t="s">
-        <v>1753</v>
+        <v>1750</v>
       </c>
       <c r="H134" s="13">
         <v>68376</v>
@@ -10097,7 +10098,7 @@
         <v>1498.23</v>
       </c>
       <c r="G135" s="22" t="s">
-        <v>1753</v>
+        <v>1750</v>
       </c>
       <c r="H135" s="13">
         <v>59525</v>
@@ -10121,7 +10122,7 @@
       </c>
       <c r="F136" s="9"/>
       <c r="G136" s="22" t="s">
-        <v>1753</v>
+        <v>1750</v>
       </c>
       <c r="H136" s="13">
         <v>59889.2</v>
@@ -10147,7 +10148,7 @@
         <v>2873.21</v>
       </c>
       <c r="G137" s="22" t="s">
-        <v>1753</v>
+        <v>1750</v>
       </c>
       <c r="H137" s="13">
         <v>56325</v>
@@ -10173,7 +10174,7 @@
         <v>584.64</v>
       </c>
       <c r="G138" s="22" t="s">
-        <v>1753</v>
+        <v>1750</v>
       </c>
       <c r="H138" s="13">
         <v>60975</v>
@@ -10199,7 +10200,7 @@
         <v>1972.86</v>
       </c>
       <c r="G139" s="22" t="s">
-        <v>1753</v>
+        <v>1750</v>
       </c>
       <c r="H139" s="13">
         <v>61325</v>
@@ -10225,7 +10226,7 @@
         <v>1675.23</v>
       </c>
       <c r="G140" s="22" t="s">
-        <v>1753</v>
+        <v>1750</v>
       </c>
       <c r="H140" s="10">
         <v>60184</v>
@@ -10251,7 +10252,7 @@
         <v>3199.35</v>
       </c>
       <c r="G141" s="22" t="s">
-        <v>1753</v>
+        <v>1750</v>
       </c>
       <c r="H141" s="10">
         <v>55125</v>
@@ -10277,7 +10278,7 @@
         <v>861.3</v>
       </c>
       <c r="G142" s="22" t="s">
-        <v>1753</v>
+        <v>1750</v>
       </c>
       <c r="H142" s="10">
         <v>49435.6</v>
@@ -10303,7 +10304,7 @@
         <v>3108.05</v>
       </c>
       <c r="G143" s="22" t="s">
-        <v>1753</v>
+        <v>1750</v>
       </c>
       <c r="H143" s="10">
         <v>58425</v>
@@ -10327,7 +10328,7 @@
       </c>
       <c r="F144" s="9"/>
       <c r="G144" s="22" t="s">
-        <v>1753</v>
+        <v>1750</v>
       </c>
       <c r="H144" s="10">
         <v>62804.46</v>
@@ -10351,7 +10352,7 @@
       </c>
       <c r="F145" s="9"/>
       <c r="G145" s="22" t="s">
-        <v>1753</v>
+        <v>1750</v>
       </c>
       <c r="H145" s="10">
         <v>65378.8</v>
@@ -10375,7 +10376,7 @@
       </c>
       <c r="F146" s="9"/>
       <c r="G146" s="22" t="s">
-        <v>1753</v>
+        <v>1750</v>
       </c>
       <c r="H146" s="10">
         <v>75990</v>
@@ -10401,7 +10402,7 @@
         <v>730.22</v>
       </c>
       <c r="G147" s="22" t="s">
-        <v>1753</v>
+        <v>1750</v>
       </c>
       <c r="H147" s="13">
         <v>59130</v>
@@ -10425,7 +10426,7 @@
       </c>
       <c r="F148" s="9"/>
       <c r="G148" s="22" t="s">
-        <v>1753</v>
+        <v>1750</v>
       </c>
       <c r="H148" s="13">
         <v>67481.2</v>
@@ -10451,7 +10452,7 @@
         <v>719.99</v>
       </c>
       <c r="G149" s="22" t="s">
-        <v>1753</v>
+        <v>1750</v>
       </c>
       <c r="H149" s="13">
         <v>64926</v>
@@ -10477,7 +10478,7 @@
         <v>2903.29</v>
       </c>
       <c r="G150" s="22" t="s">
-        <v>1753</v>
+        <v>1750</v>
       </c>
       <c r="H150" s="10">
         <v>67426</v>
@@ -10501,7 +10502,7 @@
       </c>
       <c r="F151" s="9"/>
       <c r="G151" s="22" t="s">
-        <v>1753</v>
+        <v>1750</v>
       </c>
       <c r="H151" s="13">
         <v>62804.46</v>
@@ -10527,7 +10528,7 @@
         <v>8903.3700000000008</v>
       </c>
       <c r="G152" s="22" t="s">
-        <v>1753</v>
+        <v>1750</v>
       </c>
       <c r="H152" s="13">
         <v>56725</v>
@@ -10553,7 +10554,7 @@
         <v>1017.92</v>
       </c>
       <c r="G153" s="22" t="s">
-        <v>1753</v>
+        <v>1750</v>
       </c>
       <c r="H153" s="13">
         <v>49464.800000000003</v>
@@ -10577,7 +10578,7 @@
       </c>
       <c r="F154" s="9"/>
       <c r="G154" s="22" t="s">
-        <v>1753</v>
+        <v>1750</v>
       </c>
       <c r="H154" s="13">
         <v>49483.199999999997</v>
@@ -10603,7 +10604,7 @@
         <v>16644.009999999998</v>
       </c>
       <c r="G155" s="22" t="s">
-        <v>1753</v>
+        <v>1750</v>
       </c>
       <c r="H155" s="13">
         <v>66372</v>
@@ -10629,7 +10630,7 @@
         <v>2470.15</v>
       </c>
       <c r="G156" s="22" t="s">
-        <v>1753</v>
+        <v>1750</v>
       </c>
       <c r="H156" s="13">
         <v>60384</v>
@@ -10655,7 +10656,7 @@
         <v>3695.25</v>
       </c>
       <c r="G157" s="22" t="s">
-        <v>1753</v>
+        <v>1750</v>
       </c>
       <c r="H157" s="13">
         <v>56025</v>
@@ -10681,7 +10682,7 @@
         <v>1460.9</v>
       </c>
       <c r="G158" s="22" t="s">
-        <v>1753</v>
+        <v>1750</v>
       </c>
       <c r="H158" s="13">
         <v>60940</v>
@@ -10707,7 +10708,7 @@
         <v>3890.14</v>
       </c>
       <c r="G159" s="22" t="s">
-        <v>1753</v>
+        <v>1750</v>
       </c>
       <c r="H159" s="13">
         <v>60925</v>
@@ -10731,7 +10732,7 @@
       </c>
       <c r="F160" s="9"/>
       <c r="G160" s="22" t="s">
-        <v>1753</v>
+        <v>1750</v>
       </c>
       <c r="H160" s="13">
         <v>103446.39</v>
@@ -10757,7 +10758,7 @@
         <v>773.29</v>
       </c>
       <c r="G161" s="22" t="s">
-        <v>1753</v>
+        <v>1750</v>
       </c>
       <c r="H161" s="13">
         <v>49464.800000000003</v>
@@ -10783,7 +10784,7 @@
         <v>3256.53</v>
       </c>
       <c r="G162" s="22" t="s">
-        <v>1753</v>
+        <v>1750</v>
       </c>
       <c r="H162" s="13">
         <v>57925</v>
@@ -10809,7 +10810,7 @@
         <v>6359.97</v>
       </c>
       <c r="G163" s="22" t="s">
-        <v>1753</v>
+        <v>1750</v>
       </c>
       <c r="H163" s="10">
         <v>59925</v>
@@ -10835,7 +10836,7 @@
         <v>1550.94</v>
       </c>
       <c r="G164" s="22" t="s">
-        <v>1753</v>
+        <v>1750</v>
       </c>
       <c r="H164" s="13">
         <v>60386</v>
@@ -10861,7 +10862,7 @@
         <v>2162.4</v>
       </c>
       <c r="G165" s="22" t="s">
-        <v>1753</v>
+        <v>1750</v>
       </c>
       <c r="H165" s="13">
         <v>61784</v>
@@ -10887,7 +10888,7 @@
         <v>4268.96</v>
       </c>
       <c r="G166" s="22" t="s">
-        <v>1753</v>
+        <v>1750</v>
       </c>
       <c r="H166" s="13">
         <v>65726</v>
@@ -10913,7 +10914,7 @@
         <v>1977.76</v>
       </c>
       <c r="G167" s="22" t="s">
-        <v>1753</v>
+        <v>1750</v>
       </c>
       <c r="H167" s="13">
         <v>60940</v>
@@ -10939,7 +10940,7 @@
         <v>1447.52</v>
       </c>
       <c r="G168" s="22" t="s">
-        <v>1753</v>
+        <v>1750</v>
       </c>
       <c r="H168" s="13">
         <v>49446.54</v>
@@ -10965,7 +10966,7 @@
         <v>1556.33</v>
       </c>
       <c r="G169" s="22" t="s">
-        <v>1753</v>
+        <v>1750</v>
       </c>
       <c r="H169" s="13">
         <v>55325</v>
@@ -10991,7 +10992,7 @@
         <v>3738.3</v>
       </c>
       <c r="G170" s="22" t="s">
-        <v>1753</v>
+        <v>1750</v>
       </c>
       <c r="H170" s="13">
         <v>49464.800000000003</v>
@@ -11017,7 +11018,7 @@
         <v>1176.6500000000001</v>
       </c>
       <c r="G171" s="22" t="s">
-        <v>1753</v>
+        <v>1750</v>
       </c>
       <c r="H171" s="13">
         <v>49464.800000000003</v>
@@ -11043,7 +11044,7 @@
         <v>1596.97</v>
       </c>
       <c r="G172" s="22" t="s">
-        <v>1753</v>
+        <v>1750</v>
       </c>
       <c r="H172" s="13">
         <v>58325</v>
@@ -11069,7 +11070,7 @@
         <v>1769.58</v>
       </c>
       <c r="G173" s="22" t="s">
-        <v>1753</v>
+        <v>1750</v>
       </c>
       <c r="H173" s="13">
         <v>49483.199999999997</v>
@@ -11095,7 +11096,7 @@
         <v>274.51</v>
       </c>
       <c r="G174" s="22" t="s">
-        <v>1753</v>
+        <v>1750</v>
       </c>
       <c r="H174" s="13">
         <v>57319.6</v>
@@ -11121,7 +11122,7 @@
         <v>6123.52</v>
       </c>
       <c r="G175" s="22" t="s">
-        <v>1753</v>
+        <v>1750</v>
       </c>
       <c r="H175" s="13">
         <v>60684</v>
@@ -11147,7 +11148,7 @@
         <v>286.08999999999997</v>
       </c>
       <c r="G176" s="22" t="s">
-        <v>1753</v>
+        <v>1750</v>
       </c>
       <c r="H176" s="13">
         <v>59625</v>
@@ -11173,7 +11174,7 @@
         <v>1548.12</v>
       </c>
       <c r="G177" s="22" t="s">
-        <v>1753</v>
+        <v>1750</v>
       </c>
       <c r="H177" s="13">
         <v>59480</v>
@@ -11199,7 +11200,7 @@
         <v>1506.13</v>
       </c>
       <c r="G178" s="22" t="s">
-        <v>1753</v>
+        <v>1750</v>
       </c>
       <c r="H178" s="10">
         <v>64620</v>
@@ -11225,7 +11226,7 @@
         <v>954.66</v>
       </c>
       <c r="G179" s="22" t="s">
-        <v>1753</v>
+        <v>1750</v>
       </c>
       <c r="H179" s="13">
         <v>59384</v>
@@ -11251,7 +11252,7 @@
         <v>1764.19</v>
       </c>
       <c r="G180" s="22" t="s">
-        <v>1753</v>
+        <v>1750</v>
       </c>
       <c r="H180" s="10">
         <v>59225</v>
@@ -11277,7 +11278,7 @@
         <v>2679.88</v>
       </c>
       <c r="G181" s="22" t="s">
-        <v>1753</v>
+        <v>1750</v>
       </c>
       <c r="H181" s="10">
         <v>58425</v>
@@ -11303,7 +11304,7 @@
         <v>1212.7</v>
       </c>
       <c r="G182" s="22" t="s">
-        <v>1753</v>
+        <v>1750</v>
       </c>
       <c r="H182" s="10">
         <v>58825</v>
@@ -11329,7 +11330,7 @@
         <v>3357.91</v>
       </c>
       <c r="G183" s="22" t="s">
-        <v>1753</v>
+        <v>1750</v>
       </c>
       <c r="H183" s="10">
         <v>65626</v>
@@ -11355,7 +11356,7 @@
         <v>1732.73</v>
       </c>
       <c r="G184" s="22" t="s">
-        <v>1753</v>
+        <v>1750</v>
       </c>
       <c r="H184" s="10">
         <v>56625</v>
@@ -11381,7 +11382,7 @@
         <v>2810.12</v>
       </c>
       <c r="G185" s="22" t="s">
-        <v>1753</v>
+        <v>1750</v>
       </c>
       <c r="H185" s="10">
         <v>49464.800000000003</v>
@@ -11407,7 +11408,7 @@
         <v>2237.19</v>
       </c>
       <c r="G186" s="22" t="s">
-        <v>1753</v>
+        <v>1750</v>
       </c>
       <c r="H186" s="10">
         <v>57425</v>
@@ -11433,7 +11434,7 @@
         <v>1261.29</v>
       </c>
       <c r="G187" s="22" t="s">
-        <v>1753</v>
+        <v>1750</v>
       </c>
       <c r="H187" s="10">
         <v>49464.800000000003</v>
@@ -11459,7 +11460,7 @@
         <v>878.92</v>
       </c>
       <c r="G188" s="22" t="s">
-        <v>1753</v>
+        <v>1750</v>
       </c>
       <c r="H188" s="13">
         <v>59685</v>
@@ -11485,7 +11486,7 @@
         <v>3077.57</v>
       </c>
       <c r="G189" s="22" t="s">
-        <v>1753</v>
+        <v>1750</v>
       </c>
       <c r="H189" s="13">
         <v>56619</v>
@@ -11509,7 +11510,7 @@
       </c>
       <c r="F190" s="9"/>
       <c r="G190" s="22" t="s">
-        <v>1753</v>
+        <v>1750</v>
       </c>
       <c r="H190" s="10">
         <v>41573.129999999997</v>
@@ -11535,7 +11536,7 @@
         <v>2358.0700000000002</v>
       </c>
       <c r="G191" s="22" t="s">
-        <v>1753</v>
+        <v>1750</v>
       </c>
       <c r="H191" s="10">
         <v>56325</v>
@@ -11561,7 +11562,7 @@
         <v>1403.52</v>
       </c>
       <c r="G192" s="22" t="s">
-        <v>1753</v>
+        <v>1750</v>
       </c>
       <c r="H192" s="13">
         <v>60269</v>
@@ -11587,7 +11588,7 @@
         <v>1667.41</v>
       </c>
       <c r="G193" s="22" t="s">
-        <v>1753</v>
+        <v>1750</v>
       </c>
       <c r="H193" s="13">
         <v>59525</v>
@@ -11613,7 +11614,7 @@
         <v>2066.6799999999998</v>
       </c>
       <c r="G194" s="22" t="s">
-        <v>1753</v>
+        <v>1750</v>
       </c>
       <c r="H194" s="13">
         <v>65788</v>
@@ -11639,7 +11640,7 @@
         <v>3616.69</v>
       </c>
       <c r="G195" s="22" t="s">
-        <v>1753</v>
+        <v>1750</v>
       </c>
       <c r="H195" s="13">
         <v>49464.800000000003</v>
@@ -11665,7 +11666,7 @@
         <v>1642.11</v>
       </c>
       <c r="G196" s="22" t="s">
-        <v>1753</v>
+        <v>1750</v>
       </c>
       <c r="H196" s="13">
         <v>64726</v>
@@ -11691,7 +11692,7 @@
         <v>3903.93</v>
       </c>
       <c r="G197" s="22" t="s">
-        <v>1753</v>
+        <v>1750</v>
       </c>
       <c r="H197" s="13">
         <v>66664</v>
@@ -11717,7 +11718,7 @@
         <v>12029.77</v>
       </c>
       <c r="G198" s="22" t="s">
-        <v>1753</v>
+        <v>1750</v>
       </c>
       <c r="H198" s="13">
         <v>68286</v>
@@ -11743,7 +11744,7 @@
         <v>2340.29</v>
       </c>
       <c r="G199" s="22" t="s">
-        <v>1753</v>
+        <v>1750</v>
       </c>
       <c r="H199" s="13">
         <v>61975</v>
@@ -11769,7 +11770,7 @@
         <v>1206.49</v>
       </c>
       <c r="G200" s="22" t="s">
-        <v>1753</v>
+        <v>1750</v>
       </c>
       <c r="H200" s="13">
         <v>56525</v>
@@ -11795,7 +11796,7 @@
         <v>4874.1000000000004</v>
       </c>
       <c r="G201" s="22" t="s">
-        <v>1753</v>
+        <v>1750</v>
       </c>
       <c r="H201" s="13">
         <v>67773</v>
@@ -11819,7 +11820,7 @@
       </c>
       <c r="F202" s="9"/>
       <c r="G202" s="22" t="s">
-        <v>1753</v>
+        <v>1750</v>
       </c>
       <c r="H202" s="13">
         <v>75990</v>
@@ -11845,7 +11846,7 @@
         <v>10439.700000000001</v>
       </c>
       <c r="G203" s="22" t="s">
-        <v>1753</v>
+        <v>1750</v>
       </c>
       <c r="H203" s="13">
         <v>58325</v>
@@ -11871,7 +11872,7 @@
         <v>3495.8</v>
       </c>
       <c r="G204" s="22" t="s">
-        <v>1753</v>
+        <v>1750</v>
       </c>
       <c r="H204" s="13">
         <v>56825</v>
@@ -11897,7 +11898,7 @@
         <v>136.01</v>
       </c>
       <c r="G205" s="22" t="s">
-        <v>1753</v>
+        <v>1750</v>
       </c>
       <c r="H205" s="13">
         <v>56823.199999999997</v>
@@ -11923,7 +11924,7 @@
         <v>2602.8200000000002</v>
       </c>
       <c r="G206" s="22" t="s">
-        <v>1753</v>
+        <v>1750</v>
       </c>
       <c r="H206" s="13">
         <v>49464.800000000003</v>
@@ -11947,7 +11948,7 @@
       </c>
       <c r="F207" s="9"/>
       <c r="G207" s="22" t="s">
-        <v>1753</v>
+        <v>1750</v>
       </c>
       <c r="H207" s="13">
         <v>82110</v>
@@ -11973,7 +11974,7 @@
         <v>5573.74</v>
       </c>
       <c r="G208" s="22" t="s">
-        <v>1753</v>
+        <v>1750</v>
       </c>
       <c r="H208" s="13">
         <v>60184</v>
@@ -11999,7 +12000,7 @@
         <v>11254.15</v>
       </c>
       <c r="G209" s="22" t="s">
-        <v>1753</v>
+        <v>1750</v>
       </c>
       <c r="H209" s="13">
         <v>65826</v>
@@ -12025,7 +12026,7 @@
         <v>1826.32</v>
       </c>
       <c r="G210" s="22" t="s">
-        <v>1753</v>
+        <v>1750</v>
       </c>
       <c r="H210" s="13">
         <v>56736</v>
@@ -12049,7 +12050,7 @@
       </c>
       <c r="F211" s="9"/>
       <c r="G211" s="22" t="s">
-        <v>1753</v>
+        <v>1750</v>
       </c>
       <c r="H211" s="13">
         <v>60064.4</v>
@@ -12075,7 +12076,7 @@
         <v>9220.68</v>
       </c>
       <c r="G212" s="22" t="s">
-        <v>1753</v>
+        <v>1750</v>
       </c>
       <c r="H212" s="10">
         <v>60025</v>
@@ -12101,7 +12102,7 @@
         <v>1595.44</v>
       </c>
       <c r="G213" s="22" t="s">
-        <v>1753</v>
+        <v>1750</v>
       </c>
       <c r="H213" s="13">
         <v>62034</v>
@@ -12127,7 +12128,7 @@
         <v>949</v>
       </c>
       <c r="G214" s="22" t="s">
-        <v>1753</v>
+        <v>1750</v>
       </c>
       <c r="H214" s="13">
         <v>55421.599999999999</v>
@@ -12153,7 +12154,7 @@
         <v>1225.92</v>
       </c>
       <c r="G215" s="22" t="s">
-        <v>1753</v>
+        <v>1750</v>
       </c>
       <c r="H215" s="13">
         <v>66313</v>
@@ -12201,7 +12202,7 @@
       </c>
       <c r="F217" s="9"/>
       <c r="G217" s="22" t="s">
-        <v>1753</v>
+        <v>1750</v>
       </c>
       <c r="H217" s="13">
         <v>42410.07</v>
@@ -12249,7 +12250,7 @@
       </c>
       <c r="F219" s="9"/>
       <c r="G219" s="22" t="s">
-        <v>1753</v>
+        <v>1750</v>
       </c>
       <c r="H219" s="10">
         <v>45770.44</v>
@@ -12393,7 +12394,7 @@
       </c>
       <c r="F225" s="9"/>
       <c r="G225" s="22" t="s">
-        <v>1753</v>
+        <v>1750</v>
       </c>
       <c r="H225" s="10">
         <v>38375</v>
@@ -12417,7 +12418,7 @@
       </c>
       <c r="F226" s="9"/>
       <c r="G226" s="22" t="s">
-        <v>1753</v>
+        <v>1750</v>
       </c>
       <c r="H226" s="10">
         <v>69275.66</v>
@@ -12441,7 +12442,7 @@
       </c>
       <c r="F227" s="9"/>
       <c r="G227" s="22" t="s">
-        <v>1753</v>
+        <v>1750</v>
       </c>
       <c r="H227" s="10">
         <v>52270.63</v>
@@ -12465,7 +12466,7 @@
       </c>
       <c r="F228" s="9"/>
       <c r="G228" s="22" t="s">
-        <v>1753</v>
+        <v>1750</v>
       </c>
       <c r="H228" s="10">
         <v>39148.15</v>
@@ -12489,7 +12490,7 @@
       </c>
       <c r="F229" s="9"/>
       <c r="G229" s="22" t="s">
-        <v>1753</v>
+        <v>1750</v>
       </c>
       <c r="H229" s="10">
         <v>43600.92</v>
@@ -12513,7 +12514,7 @@
       </c>
       <c r="F230" s="9"/>
       <c r="G230" s="22" t="s">
-        <v>1753</v>
+        <v>1750</v>
       </c>
       <c r="H230" s="10">
         <v>52363</v>
@@ -12537,7 +12538,7 @@
       </c>
       <c r="F231" s="9"/>
       <c r="G231" s="22" t="s">
-        <v>1753</v>
+        <v>1750</v>
       </c>
       <c r="H231" s="10">
         <v>40000</v>
@@ -12561,7 +12562,7 @@
       </c>
       <c r="F232" s="9"/>
       <c r="G232" s="22" t="s">
-        <v>1753</v>
+        <v>1750</v>
       </c>
       <c r="H232" s="10">
         <v>51478.62</v>
@@ -12585,7 +12586,7 @@
       </c>
       <c r="F233" s="9"/>
       <c r="G233" s="22" t="s">
-        <v>1753</v>
+        <v>1750</v>
       </c>
       <c r="H233" s="10">
         <v>50725.74</v>
@@ -12609,7 +12610,7 @@
       </c>
       <c r="F234" s="9"/>
       <c r="G234" s="22" t="s">
-        <v>1753</v>
+        <v>1750</v>
       </c>
       <c r="H234" s="10">
         <v>53060.93</v>
@@ -12633,7 +12634,7 @@
       </c>
       <c r="F235" s="9"/>
       <c r="G235" s="22" t="s">
-        <v>1753</v>
+        <v>1750</v>
       </c>
       <c r="H235" s="10">
         <v>43523.32</v>
@@ -12657,7 +12658,7 @@
       </c>
       <c r="F236" s="9"/>
       <c r="G236" s="22" t="s">
-        <v>1753</v>
+        <v>1750</v>
       </c>
       <c r="H236" s="10">
         <v>43876.76</v>
@@ -12681,7 +12682,7 @@
       </c>
       <c r="F237" s="9"/>
       <c r="G237" s="22" t="s">
-        <v>1753</v>
+        <v>1750</v>
       </c>
       <c r="H237" s="10">
         <v>45038.91</v>
@@ -12705,7 +12706,7 @@
       </c>
       <c r="F238" s="9"/>
       <c r="G238" s="22" t="s">
-        <v>1753</v>
+        <v>1750</v>
       </c>
       <c r="H238" s="10">
         <v>76817.95</v>
@@ -12751,7 +12752,7 @@
       </c>
       <c r="F240" s="9"/>
       <c r="G240" s="22" t="s">
-        <v>1753</v>
+        <v>1750</v>
       </c>
       <c r="H240" s="10">
         <v>103446.24</v>
@@ -12775,7 +12776,7 @@
       </c>
       <c r="F241" s="9"/>
       <c r="G241" s="22" t="s">
-        <v>1753</v>
+        <v>1750</v>
       </c>
       <c r="H241" s="10">
         <v>46357.81</v>
@@ -12799,7 +12800,7 @@
       </c>
       <c r="F242" s="9"/>
       <c r="G242" s="22" t="s">
-        <v>1753</v>
+        <v>1750</v>
       </c>
       <c r="H242" s="13">
         <v>50725.62</v>
@@ -12823,7 +12824,7 @@
       </c>
       <c r="F243" s="9"/>
       <c r="G243" s="22" t="s">
-        <v>1753</v>
+        <v>1750</v>
       </c>
       <c r="H243" s="13">
         <v>50725.62</v>
@@ -12847,7 +12848,7 @@
       </c>
       <c r="F244" s="9"/>
       <c r="G244" s="22" t="s">
-        <v>1753</v>
+        <v>1750</v>
       </c>
       <c r="H244" s="13">
         <v>48378.6</v>
@@ -12871,7 +12872,7 @@
       </c>
       <c r="F245" s="9"/>
       <c r="G245" s="22" t="s">
-        <v>1753</v>
+        <v>1750</v>
       </c>
       <c r="H245" s="10">
         <v>39066</v>
@@ -12895,7 +12896,7 @@
       </c>
       <c r="F246" s="9"/>
       <c r="G246" s="22" t="s">
-        <v>1753</v>
+        <v>1750</v>
       </c>
       <c r="H246" s="10">
         <v>39040.74</v>
@@ -12919,7 +12920,7 @@
       </c>
       <c r="F247" s="9"/>
       <c r="G247" s="22" t="s">
-        <v>1753</v>
+        <v>1750</v>
       </c>
       <c r="H247" s="10">
         <v>100555.28</v>
@@ -12943,7 +12944,7 @@
       </c>
       <c r="F248" s="9"/>
       <c r="G248" s="22" t="s">
-        <v>1753</v>
+        <v>1750</v>
       </c>
       <c r="H248" s="10">
         <v>41384.26</v>
@@ -12967,7 +12968,7 @@
       </c>
       <c r="F249" s="9"/>
       <c r="G249" s="22" t="s">
-        <v>1753</v>
+        <v>1750</v>
       </c>
       <c r="H249" s="10">
         <v>79691.58</v>
@@ -12991,7 +12992,7 @@
       </c>
       <c r="F250" s="9"/>
       <c r="G250" s="22" t="s">
-        <v>1753</v>
+        <v>1750</v>
       </c>
       <c r="H250" s="10">
         <v>60692.46</v>
@@ -13059,7 +13060,7 @@
       </c>
       <c r="F253" s="9"/>
       <c r="G253" s="22" t="s">
-        <v>1753</v>
+        <v>1750</v>
       </c>
       <c r="H253" s="10">
         <v>52020</v>
@@ -13105,7 +13106,7 @@
       </c>
       <c r="F255" s="9"/>
       <c r="G255" s="22" t="s">
-        <v>1753</v>
+        <v>1750</v>
       </c>
       <c r="H255" s="10">
         <v>52363</v>
@@ -13129,7 +13130,7 @@
       </c>
       <c r="F256" s="9"/>
       <c r="G256" s="22" t="s">
-        <v>1753</v>
+        <v>1750</v>
       </c>
       <c r="H256" s="13">
         <v>103446.39</v>
@@ -13153,7 +13154,7 @@
       </c>
       <c r="F257" s="9"/>
       <c r="G257" s="22" t="s">
-        <v>1753</v>
+        <v>1750</v>
       </c>
       <c r="H257" s="10">
         <v>53060.4</v>
@@ -13177,7 +13178,7 @@
       </c>
       <c r="F258" s="9"/>
       <c r="G258" s="22" t="s">
-        <v>1753</v>
+        <v>1750</v>
       </c>
       <c r="H258" s="10">
         <v>49772.74</v>
@@ -13201,7 +13202,7 @@
       </c>
       <c r="F259" s="9"/>
       <c r="G259" s="22" t="s">
-        <v>1753</v>
+        <v>1750</v>
       </c>
       <c r="H259" s="10">
         <v>53040</v>
@@ -13225,7 +13226,7 @@
       </c>
       <c r="F260" s="9"/>
       <c r="G260" s="22" t="s">
-        <v>1753</v>
+        <v>1750</v>
       </c>
       <c r="H260" s="10">
         <v>83130</v>
@@ -13249,7 +13250,7 @@
       </c>
       <c r="F261" s="9"/>
       <c r="G261" s="22" t="s">
-        <v>1753</v>
+        <v>1750</v>
       </c>
       <c r="H261" s="10">
         <v>43525.61</v>
@@ -13273,7 +13274,7 @@
       </c>
       <c r="F262" s="9"/>
       <c r="G262" s="22" t="s">
-        <v>1753</v>
+        <v>1750</v>
       </c>
       <c r="H262" s="13">
         <v>46130.66</v>
@@ -13297,7 +13298,7 @@
       </c>
       <c r="F263" s="9"/>
       <c r="G263" s="22" t="s">
-        <v>1753</v>
+        <v>1750</v>
       </c>
       <c r="H263" s="10">
         <v>100555.23</v>
@@ -13321,7 +13322,7 @@
       </c>
       <c r="F264" s="9"/>
       <c r="G264" s="22" t="s">
-        <v>1753</v>
+        <v>1750</v>
       </c>
       <c r="H264" s="10">
         <v>81916.13</v>
@@ -13345,7 +13346,7 @@
       </c>
       <c r="F265" s="9"/>
       <c r="G265" s="22" t="s">
-        <v>1753</v>
+        <v>1750</v>
       </c>
       <c r="H265" s="10">
         <v>81916.13</v>
@@ -13369,7 +13370,7 @@
       </c>
       <c r="F266" s="9"/>
       <c r="G266" s="22" t="s">
-        <v>1753</v>
+        <v>1750</v>
       </c>
       <c r="H266" s="10">
         <v>58999.37</v>
@@ -13393,7 +13394,7 @@
       </c>
       <c r="F267" s="9"/>
       <c r="G267" s="22" t="s">
-        <v>1753</v>
+        <v>1750</v>
       </c>
       <c r="H267" s="10">
         <v>52236.1</v>
@@ -13417,7 +13418,7 @@
       </c>
       <c r="F268" s="9"/>
       <c r="G268" s="22" t="s">
-        <v>1753</v>
+        <v>1750</v>
       </c>
       <c r="H268" s="10">
         <v>43530.12</v>
@@ -13441,7 +13442,7 @@
       </c>
       <c r="F269" s="9"/>
       <c r="G269" s="22" t="s">
-        <v>1753</v>
+        <v>1750</v>
       </c>
       <c r="H269" s="10">
         <v>81428.72</v>
@@ -13465,7 +13466,7 @@
       </c>
       <c r="F270" s="9"/>
       <c r="G270" s="22" t="s">
-        <v>1753</v>
+        <v>1750</v>
       </c>
       <c r="H270" s="10">
         <v>72573.039999999994</v>
@@ -13511,7 +13512,7 @@
       </c>
       <c r="F272" s="9"/>
       <c r="G272" s="22" t="s">
-        <v>1753</v>
+        <v>1750</v>
       </c>
       <c r="H272" s="10">
         <v>43600.69</v>
@@ -13535,7 +13536,7 @@
       </c>
       <c r="F273" s="9"/>
       <c r="G273" s="22" t="s">
-        <v>1753</v>
+        <v>1750</v>
       </c>
       <c r="H273" s="10">
         <v>80000</v>
@@ -13559,7 +13560,7 @@
       </c>
       <c r="F274" s="9"/>
       <c r="G274" s="22" t="s">
-        <v>1753</v>
+        <v>1750</v>
       </c>
       <c r="H274" s="10">
         <v>42840</v>
@@ -13583,7 +13584,7 @@
       </c>
       <c r="F275" s="9"/>
       <c r="G275" s="22" t="s">
-        <v>1753</v>
+        <v>1750</v>
       </c>
       <c r="H275" s="10">
         <v>80000</v>
@@ -13629,7 +13630,7 @@
       </c>
       <c r="F277" s="9"/>
       <c r="G277" s="22" t="s">
-        <v>1753</v>
+        <v>1750</v>
       </c>
       <c r="H277" s="10">
         <v>75169.22</v>
@@ -13653,7 +13654,7 @@
       </c>
       <c r="F278" s="9"/>
       <c r="G278" s="22" t="s">
-        <v>1753</v>
+        <v>1750</v>
       </c>
       <c r="H278" s="10">
         <v>69256.91</v>
@@ -13677,7 +13678,7 @@
       </c>
       <c r="F279" s="9"/>
       <c r="G279" s="22" t="s">
-        <v>1753</v>
+        <v>1750</v>
       </c>
       <c r="H279" s="13">
         <v>52237.4</v>
@@ -13701,7 +13702,7 @@
       </c>
       <c r="F280" s="9"/>
       <c r="G280" s="22" t="s">
-        <v>1753</v>
+        <v>1750</v>
       </c>
       <c r="H280" s="13">
         <v>64945.93</v>
@@ -13725,7 +13726,7 @@
       </c>
       <c r="F281" s="9"/>
       <c r="G281" s="22" t="s">
-        <v>1753</v>
+        <v>1750</v>
       </c>
       <c r="H281" s="10">
         <v>77381.100000000006</v>
@@ -13749,7 +13750,7 @@
       </c>
       <c r="F282" s="9"/>
       <c r="G282" s="22" t="s">
-        <v>1753</v>
+        <v>1750</v>
       </c>
       <c r="H282" s="10">
         <v>40800</v>
@@ -13773,7 +13774,7 @@
       </c>
       <c r="F283" s="9"/>
       <c r="G283" s="22" t="s">
-        <v>1753</v>
+        <v>1750</v>
       </c>
       <c r="H283" s="10">
         <v>74460</v>
@@ -13797,7 +13798,7 @@
       </c>
       <c r="F284" s="9"/>
       <c r="G284" s="22" t="s">
-        <v>1753</v>
+        <v>1750</v>
       </c>
       <c r="H284" s="10">
         <v>107445.87</v>
@@ -13821,7 +13822,7 @@
       </c>
       <c r="F285" s="9"/>
       <c r="G285" s="22" t="s">
-        <v>1753</v>
+        <v>1750</v>
       </c>
       <c r="H285" s="10">
         <v>65609.490000000005</v>
@@ -13845,7 +13846,7 @@
       </c>
       <c r="F286" s="9"/>
       <c r="G286" s="22" t="s">
-        <v>1753</v>
+        <v>1750</v>
       </c>
       <c r="H286" s="10">
         <v>85169.86</v>
@@ -13869,7 +13870,7 @@
       </c>
       <c r="F287" s="9"/>
       <c r="G287" s="22" t="s">
-        <v>1753</v>
+        <v>1750</v>
       </c>
       <c r="H287" s="10">
         <v>81810.740000000005</v>
@@ -13893,7 +13894,7 @@
       </c>
       <c r="F288" s="9"/>
       <c r="G288" s="22" t="s">
-        <v>1753</v>
+        <v>1750</v>
       </c>
       <c r="H288" s="10">
         <v>100358</v>
@@ -13917,7 +13918,7 @@
       </c>
       <c r="F289" s="9"/>
       <c r="G289" s="22" t="s">
-        <v>1753</v>
+        <v>1750</v>
       </c>
       <c r="H289" s="10">
         <v>79692.55</v>
@@ -13941,7 +13942,7 @@
       </c>
       <c r="F290" s="9"/>
       <c r="G290" s="22" t="s">
-        <v>1753</v>
+        <v>1750</v>
       </c>
       <c r="H290" s="10">
         <v>52234.07</v>
@@ -13965,7 +13966,7 @@
       </c>
       <c r="F291" s="9"/>
       <c r="G291" s="22" t="s">
-        <v>1753</v>
+        <v>1750</v>
       </c>
       <c r="H291" s="10">
         <v>75770.25</v>
@@ -13989,7 +13990,7 @@
       </c>
       <c r="F292" s="9"/>
       <c r="G292" s="22" t="s">
-        <v>1753</v>
+        <v>1750</v>
       </c>
       <c r="H292" s="10">
         <v>41095.800000000003</v>
@@ -14013,7 +14014,7 @@
       </c>
       <c r="F293" s="9"/>
       <c r="G293" s="22" t="s">
-        <v>1753</v>
+        <v>1750</v>
       </c>
       <c r="H293" s="10">
         <v>57122.559999999998</v>
@@ -14037,7 +14038,7 @@
       </c>
       <c r="F294" s="9"/>
       <c r="G294" s="22" t="s">
-        <v>1753</v>
+        <v>1750</v>
       </c>
       <c r="H294" s="10">
         <v>81967.14</v>
@@ -14083,7 +14084,7 @@
       </c>
       <c r="F296" s="9"/>
       <c r="G296" s="22" t="s">
-        <v>1753</v>
+        <v>1750</v>
       </c>
       <c r="H296" s="10">
         <v>51434.32</v>
@@ -14107,7 +14108,7 @@
       </c>
       <c r="F297" s="9"/>
       <c r="G297" s="22" t="s">
-        <v>1753</v>
+        <v>1750</v>
       </c>
       <c r="H297" s="10">
         <v>112073.42</v>
@@ -14131,7 +14132,7 @@
       </c>
       <c r="F298" s="9"/>
       <c r="G298" s="22" t="s">
-        <v>1753</v>
+        <v>1750</v>
       </c>
       <c r="H298" s="10">
         <v>121847</v>
@@ -14155,7 +14156,7 @@
       </c>
       <c r="F299" s="9"/>
       <c r="G299" s="22" t="s">
-        <v>1753</v>
+        <v>1750</v>
       </c>
       <c r="H299" s="10">
         <v>50181.55</v>
@@ -14179,7 +14180,7 @@
       </c>
       <c r="F300" s="9"/>
       <c r="G300" s="22" t="s">
-        <v>1753</v>
+        <v>1750</v>
       </c>
       <c r="H300" s="10">
         <v>77286.11</v>
@@ -14225,7 +14226,7 @@
       </c>
       <c r="F302" s="9"/>
       <c r="G302" s="22" t="s">
-        <v>1753</v>
+        <v>1750</v>
       </c>
       <c r="H302" s="10">
         <v>60000</v>
@@ -14249,7 +14250,7 @@
       </c>
       <c r="F303" s="9"/>
       <c r="G303" s="22" t="s">
-        <v>1753</v>
+        <v>1750</v>
       </c>
       <c r="H303" s="10">
         <v>70039.73</v>
@@ -14295,7 +14296,7 @@
       </c>
       <c r="F305" s="9"/>
       <c r="G305" s="22" t="s">
-        <v>1753</v>
+        <v>1750</v>
       </c>
       <c r="H305" s="10">
         <v>112073.42</v>
@@ -14319,7 +14320,7 @@
       </c>
       <c r="F306" s="9"/>
       <c r="G306" s="22" t="s">
-        <v>1753</v>
+        <v>1750</v>
       </c>
       <c r="H306" s="10">
         <v>39000</v>
@@ -14343,7 +14344,7 @@
       </c>
       <c r="F307" s="9"/>
       <c r="G307" s="22" t="s">
-        <v>1753</v>
+        <v>1750</v>
       </c>
       <c r="H307" s="10">
         <v>39247.69</v>
@@ -14367,7 +14368,7 @@
       </c>
       <c r="F308" s="9"/>
       <c r="G308" s="22" t="s">
-        <v>1753</v>
+        <v>1750</v>
       </c>
       <c r="H308" s="10">
         <v>50690.48</v>
@@ -14457,7 +14458,7 @@
       </c>
       <c r="F312" s="9"/>
       <c r="G312" s="22" t="s">
-        <v>1753</v>
+        <v>1750</v>
       </c>
       <c r="H312" s="10">
         <v>61718.239999999998</v>
@@ -14481,7 +14482,7 @@
       </c>
       <c r="F313" s="9"/>
       <c r="G313" s="22" t="s">
-        <v>1753</v>
+        <v>1750</v>
       </c>
       <c r="H313" s="10">
         <v>66624</v>
@@ -14505,7 +14506,7 @@
       </c>
       <c r="F314" s="9"/>
       <c r="G314" s="22" t="s">
-        <v>1753</v>
+        <v>1750</v>
       </c>
       <c r="H314" s="10">
         <v>36806.050000000003</v>
@@ -14617,7 +14618,7 @@
       </c>
       <c r="F319" s="9"/>
       <c r="G319" s="22" t="s">
-        <v>1753</v>
+        <v>1750</v>
       </c>
       <c r="H319" s="10">
         <v>38290.620000000003</v>
@@ -14641,7 +14642,7 @@
       </c>
       <c r="F320" s="9"/>
       <c r="G320" s="22" t="s">
-        <v>1753</v>
+        <v>1750</v>
       </c>
       <c r="H320" s="10">
         <v>38290.620000000003</v>
@@ -14665,7 +14666,7 @@
       </c>
       <c r="F321" s="9"/>
       <c r="G321" s="22" t="s">
-        <v>1753</v>
+        <v>1750</v>
       </c>
       <c r="H321" s="10">
         <v>36500</v>
@@ -14689,7 +14690,7 @@
       </c>
       <c r="F322" s="9"/>
       <c r="G322" s="22" t="s">
-        <v>1753</v>
+        <v>1750</v>
       </c>
       <c r="H322" s="10">
         <v>40765.71</v>
@@ -14713,7 +14714,7 @@
       </c>
       <c r="F323" s="9"/>
       <c r="G323" s="22" t="s">
-        <v>1753</v>
+        <v>1750</v>
       </c>
       <c r="H323" s="10">
         <v>35706.53</v>
@@ -14737,7 +14738,7 @@
       </c>
       <c r="F324" s="9"/>
       <c r="G324" s="22" t="s">
-        <v>1753</v>
+        <v>1750</v>
       </c>
       <c r="H324" s="10">
         <v>35706.53</v>
@@ -14761,7 +14762,7 @@
       </c>
       <c r="F325" s="9"/>
       <c r="G325" s="22" t="s">
-        <v>1753</v>
+        <v>1750</v>
       </c>
       <c r="H325" s="10">
         <v>36500</v>
@@ -14785,7 +14786,7 @@
       </c>
       <c r="F326" s="9"/>
       <c r="G326" s="22" t="s">
-        <v>1753</v>
+        <v>1750</v>
       </c>
       <c r="H326" s="10">
         <v>41679.83</v>
@@ -14831,7 +14832,7 @@
       </c>
       <c r="F328" s="9"/>
       <c r="G328" s="22" t="s">
-        <v>1753</v>
+        <v>1750</v>
       </c>
       <c r="H328" s="10">
         <v>38285</v>
@@ -14855,7 +14856,7 @@
       </c>
       <c r="F329" s="9"/>
       <c r="G329" s="22" t="s">
-        <v>1753</v>
+        <v>1750</v>
       </c>
       <c r="H329" s="10">
         <v>38285</v>
@@ -14879,7 +14880,7 @@
       </c>
       <c r="F330" s="9"/>
       <c r="G330" s="22" t="s">
-        <v>1753</v>
+        <v>1750</v>
       </c>
       <c r="H330" s="10">
         <v>38307.410000000003</v>
@@ -14947,7 +14948,7 @@
       </c>
       <c r="F333" s="9"/>
       <c r="G333" s="22" t="s">
-        <v>1753</v>
+        <v>1750</v>
       </c>
       <c r="H333" s="10">
         <v>38290.720000000001</v>
@@ -14971,7 +14972,7 @@
       </c>
       <c r="F334" s="9"/>
       <c r="G334" s="22" t="s">
-        <v>1753</v>
+        <v>1750</v>
       </c>
       <c r="H334" s="10">
         <v>42406.14</v>
@@ -15083,7 +15084,7 @@
       </c>
       <c r="F339" s="9"/>
       <c r="G339" s="22" t="s">
-        <v>1753</v>
+        <v>1750</v>
       </c>
       <c r="H339" s="10">
         <v>42378.77</v>
@@ -15151,7 +15152,7 @@
       </c>
       <c r="F342" s="9"/>
       <c r="G342" s="22" t="s">
-        <v>1753</v>
+        <v>1750</v>
       </c>
       <c r="H342" s="10">
         <v>38290.620000000003</v>
@@ -15221,7 +15222,7 @@
         <v>85</v>
       </c>
       <c r="G345" s="22" t="s">
-        <v>1753</v>
+        <v>1750</v>
       </c>
       <c r="H345" s="10">
         <v>38290.720000000001</v>
@@ -15245,7 +15246,7 @@
       </c>
       <c r="F346" s="9"/>
       <c r="G346" s="22" t="s">
-        <v>1753</v>
+        <v>1750</v>
       </c>
       <c r="H346" s="10">
         <v>74358</v>
@@ -15291,7 +15292,7 @@
       </c>
       <c r="F348" s="9"/>
       <c r="G348" s="22" t="s">
-        <v>1753</v>
+        <v>1750</v>
       </c>
       <c r="H348" s="10">
         <v>38285.21</v>
@@ -15315,7 +15316,7 @@
       </c>
       <c r="F349" s="9"/>
       <c r="G349" s="22" t="s">
-        <v>1753</v>
+        <v>1750</v>
       </c>
       <c r="H349" s="10">
         <v>35089.599999999999</v>
@@ -16115,7 +16116,7 @@
       </c>
       <c r="F385" s="9"/>
       <c r="G385" s="22" t="s">
-        <v>1753</v>
+        <v>1750</v>
       </c>
       <c r="H385" s="10">
         <v>46900</v>
@@ -16205,7 +16206,7 @@
       </c>
       <c r="F389" s="9"/>
       <c r="G389" s="22" t="s">
-        <v>1753</v>
+        <v>1750</v>
       </c>
       <c r="H389" s="10">
         <v>56286.48</v>
@@ -16339,7 +16340,7 @@
       </c>
       <c r="F395" s="9"/>
       <c r="G395" s="22" t="s">
-        <v>1753</v>
+        <v>1750</v>
       </c>
       <c r="H395" s="10">
         <v>36500</v>
@@ -16429,7 +16430,7 @@
       </c>
       <c r="F399" s="9"/>
       <c r="G399" s="22" t="s">
-        <v>1753</v>
+        <v>1750</v>
       </c>
       <c r="H399" s="10">
         <v>45111.31</v>
@@ -16609,7 +16610,7 @@
       </c>
       <c r="F407" s="9"/>
       <c r="G407" s="22" t="s">
-        <v>1753</v>
+        <v>1750</v>
       </c>
       <c r="H407" s="10">
         <v>49575.5</v>
@@ -16813,7 +16814,7 @@
       </c>
       <c r="F416" s="9"/>
       <c r="G416" s="22" t="s">
-        <v>1753</v>
+        <v>1750</v>
       </c>
       <c r="H416" s="10">
         <v>57328.39</v>
@@ -16861,7 +16862,7 @@
       </c>
       <c r="F418" s="9"/>
       <c r="G418" s="22" t="s">
-        <v>1753</v>
+        <v>1750</v>
       </c>
       <c r="H418" s="10">
         <v>58272.52</v>
@@ -17349,7 +17350,7 @@
       </c>
       <c r="F440" s="9"/>
       <c r="G440" s="22" t="s">
-        <v>1753</v>
+        <v>1750</v>
       </c>
       <c r="H440" s="10">
         <v>50740.95</v>
@@ -17373,7 +17374,7 @@
       </c>
       <c r="F441" s="9"/>
       <c r="G441" s="22" t="s">
-        <v>1753</v>
+        <v>1750</v>
       </c>
       <c r="H441" s="10">
         <v>54789.57</v>
@@ -18200,7 +18201,7 @@
       </c>
       <c r="F478" s="9"/>
       <c r="G478" s="22" t="s">
-        <v>1753</v>
+        <v>1750</v>
       </c>
       <c r="H478" s="10">
         <v>42354.6</v>
@@ -18400,7 +18401,7 @@
       </c>
       <c r="F487" s="9"/>
       <c r="G487" s="22" t="s">
-        <v>1753</v>
+        <v>1750</v>
       </c>
       <c r="H487" s="10">
         <v>49705.46</v>
@@ -18424,7 +18425,7 @@
       </c>
       <c r="F488" s="9"/>
       <c r="G488" s="22" t="s">
-        <v>1753</v>
+        <v>1750</v>
       </c>
       <c r="H488" s="10">
         <v>38203.49</v>
@@ -18584,7 +18585,7 @@
       </c>
       <c r="F495" s="9"/>
       <c r="G495" s="22" t="s">
-        <v>1753</v>
+        <v>1750</v>
       </c>
       <c r="H495" s="10">
         <v>74368.56</v>
@@ -19100,7 +19101,7 @@
       </c>
       <c r="F518" s="9"/>
       <c r="G518" s="22" t="s">
-        <v>1753</v>
+        <v>1750</v>
       </c>
       <c r="H518" s="13">
         <v>45756.639999999999</v>
@@ -19700,7 +19701,7 @@
       </c>
       <c r="F545" s="9"/>
       <c r="G545" s="22" t="s">
-        <v>1753</v>
+        <v>1750</v>
       </c>
       <c r="H545" s="10">
         <v>58058.68</v>
@@ -19724,7 +19725,7 @@
       </c>
       <c r="F546" s="9"/>
       <c r="G546" s="22" t="s">
-        <v>1753</v>
+        <v>1750</v>
       </c>
       <c r="H546" s="10">
         <v>62781.06</v>
@@ -19968,7 +19969,7 @@
       </c>
       <c r="F557" s="9"/>
       <c r="G557" s="22" t="s">
-        <v>1753</v>
+        <v>1750</v>
       </c>
       <c r="H557" s="10">
         <v>106062.29</v>
@@ -20240,7 +20241,7 @@
       </c>
       <c r="F569" s="9"/>
       <c r="G569" s="22" t="s">
-        <v>1753</v>
+        <v>1750</v>
       </c>
       <c r="H569" s="10">
         <v>43578.34</v>
@@ -20616,7 +20617,7 @@
       </c>
       <c r="F586" s="9"/>
       <c r="G586" s="22" t="s">
-        <v>1753</v>
+        <v>1750</v>
       </c>
       <c r="H586" s="10">
         <v>45748.7</v>
@@ -20686,7 +20687,7 @@
       </c>
       <c r="F589" s="9"/>
       <c r="G589" s="22" t="s">
-        <v>1753</v>
+        <v>1750</v>
       </c>
       <c r="H589" s="10">
         <v>45710.75</v>
@@ -20732,7 +20733,7 @@
       </c>
       <c r="F591" s="9"/>
       <c r="G591" s="22" t="s">
-        <v>1753</v>
+        <v>1750</v>
       </c>
       <c r="H591" s="10">
         <v>45748.7</v>
@@ -20778,7 +20779,7 @@
       </c>
       <c r="F593" s="9"/>
       <c r="G593" s="22" t="s">
-        <v>1753</v>
+        <v>1750</v>
       </c>
       <c r="H593" s="10">
         <v>28735.200000000001</v>
@@ -21044,7 +21045,7 @@
       </c>
       <c r="F605" s="9"/>
       <c r="G605" s="22" t="s">
-        <v>1753</v>
+        <v>1750</v>
       </c>
       <c r="H605" s="10">
         <v>64328.639999999999</v>
@@ -21112,7 +21113,7 @@
       </c>
       <c r="F608" s="9"/>
       <c r="G608" s="22" t="s">
-        <v>1753</v>
+        <v>1750</v>
       </c>
       <c r="H608" s="10">
         <v>47543.05</v>
@@ -21202,7 +21203,7 @@
       </c>
       <c r="F612" s="9"/>
       <c r="G612" s="22" t="s">
-        <v>1753</v>
+        <v>1750</v>
       </c>
       <c r="H612" s="10">
         <v>45500</v>
@@ -21314,7 +21315,7 @@
       </c>
       <c r="F617" s="9"/>
       <c r="G617" s="22" t="s">
-        <v>1753</v>
+        <v>1750</v>
       </c>
       <c r="H617" s="10">
         <v>45710.75</v>
@@ -21986,7 +21987,7 @@
       </c>
       <c r="F647" s="9"/>
       <c r="G647" s="22" t="s">
-        <v>1753</v>
+        <v>1750</v>
       </c>
       <c r="H647" s="10">
         <v>49431.14</v>
@@ -22054,7 +22055,7 @@
       </c>
       <c r="F650" s="9"/>
       <c r="G650" s="22" t="s">
-        <v>1753</v>
+        <v>1750</v>
       </c>
       <c r="H650" s="10">
         <v>45751.13</v>
@@ -22256,7 +22257,7 @@
       </c>
       <c r="F659" s="9"/>
       <c r="G659" s="22" t="s">
-        <v>1753</v>
+        <v>1750</v>
       </c>
       <c r="H659" s="10">
         <v>46944.92</v>
@@ -22324,7 +22325,7 @@
       </c>
       <c r="F662" s="9"/>
       <c r="G662" s="22" t="s">
-        <v>1753</v>
+        <v>1750</v>
       </c>
       <c r="H662" s="10">
         <v>38494.800000000003</v>
@@ -22372,7 +22373,7 @@
       </c>
       <c r="F664" s="9"/>
       <c r="G664" s="22" t="s">
-        <v>1753</v>
+        <v>1750</v>
       </c>
       <c r="H664" s="10">
         <v>45907.78</v>
@@ -22418,7 +22419,7 @@
       </c>
       <c r="F666" s="9"/>
       <c r="G666" s="22" t="s">
-        <v>1753</v>
+        <v>1750</v>
       </c>
       <c r="H666" s="10">
         <v>63400.59</v>
@@ -22552,7 +22553,7 @@
       </c>
       <c r="F672" s="9"/>
       <c r="G672" s="22" t="s">
-        <v>1753</v>
+        <v>1750</v>
       </c>
       <c r="H672" s="10">
         <v>75000</v>
@@ -22642,7 +22643,7 @@
       </c>
       <c r="F676" s="9"/>
       <c r="G676" s="22" t="s">
-        <v>1753</v>
+        <v>1750</v>
       </c>
       <c r="H676" s="10">
         <v>44998.15</v>
@@ -22908,7 +22909,7 @@
       </c>
       <c r="F688" s="9"/>
       <c r="G688" s="22" t="s">
-        <v>1753</v>
+        <v>1750</v>
       </c>
       <c r="H688" s="10">
         <v>74402.75</v>
@@ -22978,7 +22979,7 @@
       </c>
       <c r="F691" s="9"/>
       <c r="G691" s="22" t="s">
-        <v>1753</v>
+        <v>1750</v>
       </c>
       <c r="H691" s="10">
         <v>58510.87</v>
@@ -23444,7 +23445,7 @@
       </c>
       <c r="F712" s="9"/>
       <c r="G712" s="22" t="s">
-        <v>1753</v>
+        <v>1750</v>
       </c>
       <c r="H712" s="10">
         <v>49835.16</v>
@@ -23468,7 +23469,7 @@
       </c>
       <c r="F713" s="9"/>
       <c r="G713" s="22" t="s">
-        <v>1753</v>
+        <v>1750</v>
       </c>
       <c r="H713" s="10">
         <v>47754.36</v>
@@ -23492,7 +23493,7 @@
       </c>
       <c r="F714" s="9"/>
       <c r="G714" s="22" t="s">
-        <v>1753</v>
+        <v>1750</v>
       </c>
       <c r="H714" s="10">
         <v>39602.83</v>
@@ -23516,7 +23517,7 @@
       </c>
       <c r="F715" s="9"/>
       <c r="G715" s="22" t="s">
-        <v>1753</v>
+        <v>1750</v>
       </c>
       <c r="H715" s="10">
         <v>56589.98</v>
@@ -23540,7 +23541,7 @@
       </c>
       <c r="F716" s="9"/>
       <c r="G716" s="22" t="s">
-        <v>1753</v>
+        <v>1750</v>
       </c>
       <c r="H716" s="10">
         <v>43713.45</v>
@@ -23564,7 +23565,7 @@
       </c>
       <c r="F717" s="9"/>
       <c r="G717" s="22" t="s">
-        <v>1753</v>
+        <v>1750</v>
       </c>
       <c r="H717" s="10">
         <v>46000</v>
@@ -23588,7 +23589,7 @@
       </c>
       <c r="F718" s="9"/>
       <c r="G718" s="22" t="s">
-        <v>1753</v>
+        <v>1750</v>
       </c>
       <c r="H718" s="10">
         <v>46544.58</v>
@@ -23612,7 +23613,7 @@
       </c>
       <c r="F719" s="9"/>
       <c r="G719" s="22" t="s">
-        <v>1753</v>
+        <v>1750</v>
       </c>
       <c r="H719" s="10">
         <v>51368.95</v>
@@ -23636,7 +23637,7 @@
       </c>
       <c r="F720" s="9"/>
       <c r="G720" s="22" t="s">
-        <v>1753</v>
+        <v>1750</v>
       </c>
       <c r="H720" s="10">
         <v>59105.120000000003</v>
@@ -23660,7 +23661,7 @@
       </c>
       <c r="F721" s="9"/>
       <c r="G721" s="22" t="s">
-        <v>1753</v>
+        <v>1750</v>
       </c>
       <c r="H721" s="10">
         <v>46242</v>
@@ -23684,7 +23685,7 @@
       </c>
       <c r="F722" s="9"/>
       <c r="G722" s="22" t="s">
-        <v>1753</v>
+        <v>1750</v>
       </c>
       <c r="H722" s="10">
         <v>47754.36</v>
@@ -23708,7 +23709,7 @@
       </c>
       <c r="F723" s="9"/>
       <c r="G723" s="22" t="s">
-        <v>1753</v>
+        <v>1750</v>
       </c>
       <c r="H723" s="10">
         <v>103446.36</v>
@@ -23732,7 +23733,7 @@
       </c>
       <c r="F724" s="9"/>
       <c r="G724" s="22" t="s">
-        <v>1753</v>
+        <v>1750</v>
       </c>
       <c r="H724" s="10">
         <v>46241.61</v>
@@ -23756,7 +23757,7 @@
       </c>
       <c r="F725" s="9"/>
       <c r="G725" s="22" t="s">
-        <v>1753</v>
+        <v>1750</v>
       </c>
       <c r="H725" s="10">
         <v>67699.77</v>
@@ -23780,7 +23781,7 @@
       </c>
       <c r="F726" s="9"/>
       <c r="G726" s="22" t="s">
-        <v>1753</v>
+        <v>1750</v>
       </c>
       <c r="H726" s="10">
         <v>72162.14</v>
@@ -23826,7 +23827,7 @@
       </c>
       <c r="F728" s="9"/>
       <c r="G728" s="22" t="s">
-        <v>1753</v>
+        <v>1750</v>
       </c>
       <c r="H728" s="10">
         <v>56119.85</v>
@@ -23852,7 +23853,7 @@
         <v>692.56</v>
       </c>
       <c r="G729" s="22" t="s">
-        <v>1753</v>
+        <v>1750</v>
       </c>
       <c r="H729" s="10">
         <v>39474</v>
@@ -23878,7 +23879,7 @@
         <v>8399.4699999999993</v>
       </c>
       <c r="G730" s="22" t="s">
-        <v>1753</v>
+        <v>1750</v>
       </c>
       <c r="H730" s="10">
         <v>64316</v>
@@ -23902,7 +23903,7 @@
       </c>
       <c r="F731" s="9"/>
       <c r="G731" s="22" t="s">
-        <v>1753</v>
+        <v>1750</v>
       </c>
       <c r="H731" s="10">
         <v>45719.3</v>
@@ -23928,7 +23929,7 @@
         <v>1907.15</v>
       </c>
       <c r="G732" s="22" t="s">
-        <v>1753</v>
+        <v>1750</v>
       </c>
       <c r="H732" s="10">
         <v>50500</v>
@@ -23952,7 +23953,7 @@
       </c>
       <c r="F733" s="9"/>
       <c r="G733" s="22" t="s">
-        <v>1753</v>
+        <v>1750</v>
       </c>
       <c r="H733" s="10">
         <v>39753.480000000003</v>
@@ -23978,7 +23979,7 @@
         <v>4543.91</v>
       </c>
       <c r="G734" s="22" t="s">
-        <v>1753</v>
+        <v>1750</v>
       </c>
       <c r="H734" s="10">
         <v>51000</v>
@@ -24004,7 +24005,7 @@
         <v>11886.45</v>
       </c>
       <c r="G735" s="22" t="s">
-        <v>1753</v>
+        <v>1750</v>
       </c>
       <c r="H735" s="10">
         <v>48500</v>
@@ -24030,7 +24031,7 @@
         <v>1772.56</v>
       </c>
       <c r="G736" s="22" t="s">
-        <v>1753</v>
+        <v>1750</v>
       </c>
       <c r="H736" s="10">
         <v>50500</v>
@@ -24056,7 +24057,7 @@
         <v>14825.35</v>
       </c>
       <c r="G737" s="22" t="s">
-        <v>1753</v>
+        <v>1750</v>
       </c>
       <c r="H737" s="10">
         <v>63291</v>
@@ -24082,7 +24083,7 @@
         <v>630</v>
       </c>
       <c r="G738" s="22" t="s">
-        <v>1753</v>
+        <v>1750</v>
       </c>
       <c r="H738" s="10">
         <v>74399</v>
@@ -24106,7 +24107,7 @@
       </c>
       <c r="F739" s="9"/>
       <c r="G739" s="22" t="s">
-        <v>1753</v>
+        <v>1750</v>
       </c>
       <c r="H739" s="10">
         <v>59381.36</v>
@@ -24130,7 +24131,7 @@
       </c>
       <c r="F740" s="9"/>
       <c r="G740" s="22" t="s">
-        <v>1753</v>
+        <v>1750</v>
       </c>
       <c r="H740" s="10">
         <v>62056.24</v>
@@ -24154,7 +24155,7 @@
       </c>
       <c r="F741" s="9"/>
       <c r="G741" s="22" t="s">
-        <v>1753</v>
+        <v>1750</v>
       </c>
       <c r="H741" s="10">
         <v>53262.36</v>
@@ -24180,7 +24181,7 @@
         <v>1285.24</v>
       </c>
       <c r="G742" s="22" t="s">
-        <v>1753</v>
+        <v>1750</v>
       </c>
       <c r="H742" s="10">
         <v>56131.91</v>
@@ -24206,7 +24207,7 @@
         <v>26486.3</v>
       </c>
       <c r="G743" s="22" t="s">
-        <v>1753</v>
+        <v>1750</v>
       </c>
       <c r="H743" s="10">
         <v>64442</v>
@@ -24232,7 +24233,7 @@
         <v>3365.64</v>
       </c>
       <c r="G744" s="22" t="s">
-        <v>1753</v>
+        <v>1750</v>
       </c>
       <c r="H744" s="10">
         <v>43487.42</v>
@@ -24258,7 +24259,7 @@
         <v>343.56</v>
       </c>
       <c r="G745" s="22" t="s">
-        <v>1753</v>
+        <v>1750</v>
       </c>
       <c r="H745" s="10">
         <v>39700</v>
@@ -24284,7 +24285,7 @@
         <v>1880.1</v>
       </c>
       <c r="G746" s="22" t="s">
-        <v>1753</v>
+        <v>1750</v>
       </c>
       <c r="H746" s="10">
         <v>56956</v>
@@ -24332,7 +24333,7 @@
         <v>13458.43</v>
       </c>
       <c r="G748" s="22" t="s">
-        <v>1753</v>
+        <v>1750</v>
       </c>
       <c r="H748" s="10">
         <v>59481</v>
@@ -24356,7 +24357,7 @@
       </c>
       <c r="F749" s="9"/>
       <c r="G749" s="22" t="s">
-        <v>1753</v>
+        <v>1750</v>
       </c>
       <c r="H749" s="10">
         <v>38974</v>
@@ -24382,7 +24383,7 @@
         <v>2536.1</v>
       </c>
       <c r="G750" s="22" t="s">
-        <v>1753</v>
+        <v>1750</v>
       </c>
       <c r="H750" s="10">
         <v>50500</v>
@@ -24408,7 +24409,7 @@
         <v>396</v>
       </c>
       <c r="G751" s="22" t="s">
-        <v>1753</v>
+        <v>1750</v>
       </c>
       <c r="H751" s="10">
         <v>59231.34</v>
@@ -24434,7 +24435,7 @@
         <v>711</v>
       </c>
       <c r="G752" s="22" t="s">
-        <v>1753</v>
+        <v>1750</v>
       </c>
       <c r="H752" s="10">
         <v>74049</v>
@@ -24460,7 +24461,7 @@
         <v>4435.6400000000003</v>
       </c>
       <c r="G753" s="22" t="s">
-        <v>1753</v>
+        <v>1750</v>
       </c>
       <c r="H753" s="10">
         <v>64766</v>
@@ -24486,7 +24487,7 @@
         <v>1964.55</v>
       </c>
       <c r="G754" s="22" t="s">
-        <v>1753</v>
+        <v>1750</v>
       </c>
       <c r="H754" s="10">
         <v>43045.94</v>
@@ -24512,7 +24513,7 @@
         <v>754.38</v>
       </c>
       <c r="G755" s="22" t="s">
-        <v>1753</v>
+        <v>1750</v>
       </c>
       <c r="H755" s="10">
         <v>43045.94</v>
@@ -24538,7 +24539,7 @@
         <v>4054.83</v>
       </c>
       <c r="G756" s="22" t="s">
-        <v>1753</v>
+        <v>1750</v>
       </c>
       <c r="H756" s="10">
         <v>59106</v>
@@ -24564,7 +24565,7 @@
         <v>7535.36</v>
       </c>
       <c r="G757" s="22" t="s">
-        <v>1753</v>
+        <v>1750</v>
       </c>
       <c r="H757" s="10">
         <v>62131.38</v>
@@ -24590,7 +24591,7 @@
         <v>233.18</v>
       </c>
       <c r="G758" s="22" t="s">
-        <v>1753</v>
+        <v>1750</v>
       </c>
       <c r="H758" s="10">
         <v>85000</v>
@@ -24616,7 +24617,7 @@
         <v>4251.3900000000003</v>
       </c>
       <c r="G759" s="22" t="s">
-        <v>1753</v>
+        <v>1750</v>
       </c>
       <c r="H759" s="10">
         <v>55872.99</v>
@@ -24642,7 +24643,7 @@
         <v>2214</v>
       </c>
       <c r="G760" s="22" t="s">
-        <v>1753</v>
+        <v>1750</v>
       </c>
       <c r="H760" s="10">
         <v>50500</v>
@@ -24668,7 +24669,7 @@
         <v>16243.66</v>
       </c>
       <c r="G761" s="22" t="s">
-        <v>1753</v>
+        <v>1750</v>
       </c>
       <c r="H761" s="10">
         <v>73648</v>
@@ -24694,7 +24695,7 @@
         <v>198</v>
       </c>
       <c r="G762" s="22" t="s">
-        <v>1753</v>
+        <v>1750</v>
       </c>
       <c r="H762" s="10">
         <v>63791</v>
@@ -24720,7 +24721,7 @@
         <v>171</v>
       </c>
       <c r="G763" s="22" t="s">
-        <v>1753</v>
+        <v>1750</v>
       </c>
       <c r="H763" s="10">
         <v>56956</v>
@@ -24744,7 +24745,7 @@
       </c>
       <c r="F764" s="9"/>
       <c r="G764" s="22" t="s">
-        <v>1753</v>
+        <v>1750</v>
       </c>
       <c r="H764" s="10">
         <v>57120</v>
@@ -24770,7 +24771,7 @@
         <v>7573.39</v>
       </c>
       <c r="G765" s="22" t="s">
-        <v>1753</v>
+        <v>1750</v>
       </c>
       <c r="H765" s="10">
         <v>59106</v>
@@ -24796,7 +24797,7 @@
         <v>216</v>
       </c>
       <c r="G766" s="22" t="s">
-        <v>1753</v>
+        <v>1750</v>
       </c>
       <c r="H766" s="10">
         <v>62791</v>
@@ -24822,7 +24823,7 @@
         <v>4593.76</v>
       </c>
       <c r="G767" s="22" t="s">
-        <v>1753</v>
+        <v>1750</v>
       </c>
       <c r="H767" s="10">
         <v>56956</v>
@@ -24848,7 +24849,7 @@
         <v>348.61</v>
       </c>
       <c r="G768" s="22" t="s">
-        <v>1753</v>
+        <v>1750</v>
       </c>
       <c r="H768" s="10">
         <v>39743.279999999999</v>
@@ -24872,7 +24873,7 @@
       </c>
       <c r="F769" s="9"/>
       <c r="G769" s="22" t="s">
-        <v>1753</v>
+        <v>1750</v>
       </c>
       <c r="H769" s="10">
         <v>106062.29</v>
@@ -24898,7 +24899,7 @@
         <v>9631.7999999999993</v>
       </c>
       <c r="G770" s="22" t="s">
-        <v>1753</v>
+        <v>1750</v>
       </c>
       <c r="H770" s="10">
         <v>65291</v>
@@ -24924,7 +24925,7 @@
         <v>6952.98</v>
       </c>
       <c r="G771" s="22" t="s">
-        <v>1753</v>
+        <v>1750</v>
       </c>
       <c r="H771" s="10">
         <v>63492</v>
@@ -24950,7 +24951,7 @@
         <v>7263.03</v>
       </c>
       <c r="G772" s="22" t="s">
-        <v>1753</v>
+        <v>1750</v>
       </c>
       <c r="H772" s="10">
         <v>65166</v>
@@ -24974,7 +24975,7 @@
       </c>
       <c r="F773" s="9"/>
       <c r="G773" s="22" t="s">
-        <v>1753</v>
+        <v>1750</v>
       </c>
       <c r="H773" s="10">
         <v>51106.79</v>
@@ -24998,7 +24999,7 @@
       </c>
       <c r="F774" s="9"/>
       <c r="G774" s="22" t="s">
-        <v>1753</v>
+        <v>1750</v>
       </c>
       <c r="H774" s="10">
         <v>39474</v>
@@ -25024,7 +25025,7 @@
         <v>12325.29</v>
       </c>
       <c r="G775" s="22" t="s">
-        <v>1753</v>
+        <v>1750</v>
       </c>
       <c r="H775" s="10">
         <v>59006</v>
@@ -25048,7 +25049,7 @@
       </c>
       <c r="F776" s="9"/>
       <c r="G776" s="22" t="s">
-        <v>1753</v>
+        <v>1750</v>
       </c>
       <c r="H776" s="10">
         <v>47940</v>
@@ -25072,7 +25073,7 @@
       </c>
       <c r="F777" s="9"/>
       <c r="G777" s="22" t="s">
-        <v>1753</v>
+        <v>1750</v>
       </c>
       <c r="H777" s="10">
         <v>73773.8</v>
@@ -25098,7 +25099,7 @@
         <v>3663</v>
       </c>
       <c r="G778" s="22" t="s">
-        <v>1753</v>
+        <v>1750</v>
       </c>
       <c r="H778" s="10">
         <v>58481.5</v>
@@ -25124,7 +25125,7 @@
         <v>14004.08</v>
       </c>
       <c r="G779" s="22" t="s">
-        <v>1753</v>
+        <v>1750</v>
       </c>
       <c r="H779" s="10">
         <v>75444</v>
@@ -25150,7 +25151,7 @@
         <v>288</v>
       </c>
       <c r="G780" s="22" t="s">
-        <v>1753</v>
+        <v>1750</v>
       </c>
       <c r="H780" s="10">
         <v>64166</v>
@@ -25174,7 +25175,7 @@
       </c>
       <c r="F781" s="9"/>
       <c r="G781" s="22" t="s">
-        <v>1753</v>
+        <v>1750</v>
       </c>
       <c r="H781" s="10">
         <v>62891</v>
@@ -25200,7 +25201,7 @@
         <v>19468.95</v>
       </c>
       <c r="G782" s="22" t="s">
-        <v>1753</v>
+        <v>1750</v>
       </c>
       <c r="H782" s="13">
         <v>65466</v>
@@ -25226,7 +25227,7 @@
         <v>250.85</v>
       </c>
       <c r="G783" s="22" t="s">
-        <v>1753</v>
+        <v>1750</v>
       </c>
       <c r="H783" s="10">
         <v>43480</v>
@@ -25250,7 +25251,7 @@
       </c>
       <c r="F784" s="9"/>
       <c r="G784" s="22" t="s">
-        <v>1753</v>
+        <v>1750</v>
       </c>
       <c r="H784" s="10">
         <v>64642</v>
@@ -25276,7 +25277,7 @@
         <v>4722.3599999999997</v>
       </c>
       <c r="G785" s="22" t="s">
-        <v>1753</v>
+        <v>1750</v>
       </c>
       <c r="H785" s="10">
         <v>75974</v>
@@ -25300,7 +25301,7 @@
       </c>
       <c r="F786" s="9"/>
       <c r="G786" s="22" t="s">
-        <v>1753</v>
+        <v>1750</v>
       </c>
       <c r="H786" s="10">
         <v>54971.61</v>
@@ -25326,7 +25327,7 @@
         <v>437.05</v>
       </c>
       <c r="G787" s="22" t="s">
-        <v>1753</v>
+        <v>1750</v>
       </c>
       <c r="H787" s="10">
         <v>63141</v>
@@ -25352,7 +25353,7 @@
         <v>6195.64</v>
       </c>
       <c r="G788" s="22" t="s">
-        <v>1753</v>
+        <v>1750</v>
       </c>
       <c r="H788" s="10">
         <v>59006</v>
@@ -25378,7 +25379,7 @@
         <v>2810.72</v>
       </c>
       <c r="G789" s="22" t="s">
-        <v>1753</v>
+        <v>1750</v>
       </c>
       <c r="H789" s="10">
         <v>64716</v>
@@ -25404,7 +25405,7 @@
         <v>5170.62</v>
       </c>
       <c r="G790" s="22" t="s">
-        <v>1753</v>
+        <v>1750</v>
       </c>
       <c r="H790" s="10">
         <v>39474</v>
@@ -25430,7 +25431,7 @@
         <v>17674.11</v>
       </c>
       <c r="G791" s="22" t="s">
-        <v>1753</v>
+        <v>1750</v>
       </c>
       <c r="H791" s="10">
         <v>58981</v>
@@ -25456,7 +25457,7 @@
         <v>14484.62</v>
       </c>
       <c r="G792" s="22" t="s">
-        <v>1753</v>
+        <v>1750</v>
       </c>
       <c r="H792" s="10">
         <v>65866</v>
@@ -25480,7 +25481,7 @@
       </c>
       <c r="F793" s="9"/>
       <c r="G793" s="22" t="s">
-        <v>1753</v>
+        <v>1750</v>
       </c>
       <c r="H793" s="10">
         <v>69850.38</v>
@@ -25506,7 +25507,7 @@
         <v>25922.560000000001</v>
       </c>
       <c r="G794" s="22" t="s">
-        <v>1753</v>
+        <v>1750</v>
       </c>
       <c r="H794" s="10">
         <v>74074</v>
@@ -25532,7 +25533,7 @@
         <v>5225.51</v>
       </c>
       <c r="G795" s="22" t="s">
-        <v>1753</v>
+        <v>1750</v>
       </c>
       <c r="H795" s="10">
         <v>65666</v>
@@ -25558,7 +25559,7 @@
         <v>45</v>
       </c>
       <c r="G796" s="22" t="s">
-        <v>1753</v>
+        <v>1750</v>
       </c>
       <c r="H796" s="10">
         <v>50500</v>
@@ -25584,7 +25585,7 @@
         <v>11336</v>
       </c>
       <c r="G797" s="22" t="s">
-        <v>1753</v>
+        <v>1750</v>
       </c>
       <c r="H797" s="10">
         <v>59181</v>
@@ -25608,7 +25609,7 @@
       </c>
       <c r="F798" s="9"/>
       <c r="G798" s="22" t="s">
-        <v>1753</v>
+        <v>1750</v>
       </c>
       <c r="H798" s="10">
         <v>39474</v>
@@ -25634,7 +25635,7 @@
         <v>6869.39</v>
       </c>
       <c r="G799" s="22" t="s">
-        <v>1753</v>
+        <v>1750</v>
       </c>
       <c r="H799" s="10">
         <v>49895.56</v>
@@ -25660,7 +25661,7 @@
         <v>234</v>
       </c>
       <c r="G800" s="22" t="s">
-        <v>1753</v>
+        <v>1750</v>
       </c>
       <c r="H800" s="10">
         <v>64266</v>
@@ -25684,7 +25685,7 @@
       </c>
       <c r="F801" s="9"/>
       <c r="G801" s="22" t="s">
-        <v>1753</v>
+        <v>1750</v>
       </c>
       <c r="H801" s="10">
         <v>56610</v>
@@ -25710,7 +25711,7 @@
         <v>9389.27</v>
       </c>
       <c r="G802" s="22" t="s">
-        <v>1753</v>
+        <v>1750</v>
       </c>
       <c r="H802" s="10">
         <v>65916</v>
@@ -25736,7 +25737,7 @@
         <v>7763.16</v>
       </c>
       <c r="G803" s="22" t="s">
-        <v>1753</v>
+        <v>1750</v>
       </c>
       <c r="H803" s="10">
         <v>66041</v>
@@ -25762,7 +25763,7 @@
         <v>2794.47</v>
       </c>
       <c r="G804" s="22" t="s">
-        <v>1753</v>
+        <v>1750</v>
       </c>
       <c r="H804" s="13">
         <v>73824</v>
@@ -25788,7 +25789,7 @@
         <v>2402.1</v>
       </c>
       <c r="G805" s="22" t="s">
-        <v>1753</v>
+        <v>1750</v>
       </c>
       <c r="H805" s="13">
         <v>59506</v>
@@ -25814,7 +25815,7 @@
         <v>3726.07</v>
       </c>
       <c r="G806" s="22" t="s">
-        <v>1753</v>
+        <v>1750</v>
       </c>
       <c r="H806" s="13">
         <v>58606</v>
@@ -25840,7 +25841,7 @@
         <v>1600.54</v>
       </c>
       <c r="G807" s="22" t="s">
-        <v>1753</v>
+        <v>1750</v>
       </c>
       <c r="H807" s="13">
         <v>43122.720000000001</v>
@@ -25866,7 +25867,7 @@
         <v>1312.66</v>
       </c>
       <c r="G808" s="22" t="s">
-        <v>1753</v>
+        <v>1750</v>
       </c>
       <c r="H808" s="13">
         <v>46131.3</v>
@@ -25892,7 +25893,7 @@
         <v>1680.5</v>
       </c>
       <c r="G809" s="22" t="s">
-        <v>1753</v>
+        <v>1750</v>
       </c>
       <c r="H809" s="13">
         <v>43426.94</v>
@@ -25918,7 +25919,7 @@
         <v>8994.61</v>
       </c>
       <c r="G810" s="22" t="s">
-        <v>1753</v>
+        <v>1750</v>
       </c>
       <c r="H810" s="10">
         <v>56372.97</v>
@@ -25944,7 +25945,7 @@
         <v>3744</v>
       </c>
       <c r="G811" s="22" t="s">
-        <v>1753</v>
+        <v>1750</v>
       </c>
       <c r="H811" s="10">
         <v>65167</v>
@@ -25970,7 +25971,7 @@
         <v>5286.06</v>
       </c>
       <c r="G812" s="22" t="s">
-        <v>1753</v>
+        <v>1750</v>
       </c>
       <c r="H812" s="13">
         <v>85000</v>
@@ -25996,7 +25997,7 @@
         <v>1701</v>
       </c>
       <c r="G813" s="22" t="s">
-        <v>1753</v>
+        <v>1750</v>
       </c>
       <c r="H813" s="13">
         <v>65167</v>
@@ -26022,7 +26023,7 @@
         <v>2259</v>
       </c>
       <c r="G814" s="22" t="s">
-        <v>1753</v>
+        <v>1750</v>
       </c>
       <c r="H814" s="13">
         <v>73299</v>
@@ -26048,7 +26049,7 @@
         <v>7376.9</v>
       </c>
       <c r="G815" s="22" t="s">
-        <v>1753</v>
+        <v>1750</v>
       </c>
       <c r="H815" s="10">
         <v>56131.31</v>
@@ -26072,7 +26073,7 @@
       </c>
       <c r="F816" s="9"/>
       <c r="G816" s="22" t="s">
-        <v>1753</v>
+        <v>1750</v>
       </c>
       <c r="H816" s="10">
         <v>59256</v>
@@ -26098,7 +26099,7 @@
         <v>8044.13</v>
       </c>
       <c r="G817" s="22" t="s">
-        <v>1753</v>
+        <v>1750</v>
       </c>
       <c r="H817" s="10">
         <v>53410.96</v>
@@ -26124,7 +26125,7 @@
         <v>376.08</v>
       </c>
       <c r="G818" s="22" t="s">
-        <v>1753</v>
+        <v>1750</v>
       </c>
       <c r="H818" s="10">
         <v>74499</v>
@@ -26150,7 +26151,7 @@
         <v>6576.03</v>
       </c>
       <c r="G819" s="22" t="s">
-        <v>1753</v>
+        <v>1750</v>
       </c>
       <c r="H819" s="10">
         <v>72424</v>
@@ -26176,7 +26177,7 @@
         <v>4618.74</v>
       </c>
       <c r="G820" s="22" t="s">
-        <v>1753</v>
+        <v>1750</v>
       </c>
       <c r="H820" s="10">
         <v>39474</v>
@@ -26202,7 +26203,7 @@
         <v>24534.54</v>
       </c>
       <c r="G821" s="22" t="s">
-        <v>1753</v>
+        <v>1750</v>
       </c>
       <c r="H821" s="10">
         <v>63342</v>
@@ -26228,7 +26229,7 @@
         <v>25560.799999999999</v>
       </c>
       <c r="G822" s="22" t="s">
-        <v>1753</v>
+        <v>1750</v>
       </c>
       <c r="H822" s="10">
         <v>66666</v>
@@ -26252,7 +26253,7 @@
       </c>
       <c r="F823" s="9"/>
       <c r="G823" s="22" t="s">
-        <v>1753</v>
+        <v>1750</v>
       </c>
       <c r="H823" s="10">
         <v>54500</v>
@@ -26278,7 +26279,7 @@
         <v>2853</v>
       </c>
       <c r="G824" s="22" t="s">
-        <v>1753</v>
+        <v>1750</v>
       </c>
       <c r="H824" s="10">
         <v>60231</v>
@@ -26304,7 +26305,7 @@
         <v>5317.64</v>
       </c>
       <c r="G825" s="22" t="s">
-        <v>1753</v>
+        <v>1750</v>
       </c>
       <c r="H825" s="10">
         <v>39753.269999999997</v>
@@ -26330,7 +26331,7 @@
         <v>2518.17</v>
       </c>
       <c r="G826" s="22" t="s">
-        <v>1753</v>
+        <v>1750</v>
       </c>
       <c r="H826" s="10">
         <v>47919.22</v>
@@ -26356,7 +26357,7 @@
         <v>14032.07</v>
       </c>
       <c r="G827" s="22" t="s">
-        <v>1753</v>
+        <v>1750</v>
       </c>
       <c r="H827" s="10">
         <v>61456</v>
@@ -26382,7 +26383,7 @@
         <v>129.49</v>
       </c>
       <c r="G828" s="22" t="s">
-        <v>1753</v>
+        <v>1750</v>
       </c>
       <c r="H828" s="10">
         <v>42250</v>
@@ -26406,7 +26407,7 @@
       </c>
       <c r="F829" s="9"/>
       <c r="G829" s="22" t="s">
-        <v>1753</v>
+        <v>1750</v>
       </c>
       <c r="H829" s="10">
         <v>48001.38</v>
@@ -26432,7 +26433,7 @@
         <v>6126.38</v>
       </c>
       <c r="G830" s="22" t="s">
-        <v>1753</v>
+        <v>1750</v>
       </c>
       <c r="H830" s="10">
         <v>56131.85</v>
@@ -26458,7 +26459,7 @@
         <v>1778.21</v>
       </c>
       <c r="G831" s="22" t="s">
-        <v>1753</v>
+        <v>1750</v>
       </c>
       <c r="H831" s="10">
         <v>65666</v>
@@ -26482,7 +26483,7 @@
       </c>
       <c r="F832" s="9"/>
       <c r="G832" s="22" t="s">
-        <v>1753</v>
+        <v>1750</v>
       </c>
       <c r="H832" s="10">
         <v>48445</v>
@@ -26508,7 +26509,7 @@
         <v>683.2</v>
       </c>
       <c r="G833" s="22" t="s">
-        <v>1753</v>
+        <v>1750</v>
       </c>
       <c r="H833" s="10">
         <v>39474</v>
@@ -26534,7 +26535,7 @@
         <v>8452.81</v>
       </c>
       <c r="G834" s="22" t="s">
-        <v>1753</v>
+        <v>1750</v>
       </c>
       <c r="H834" s="10">
         <v>51806</v>
@@ -26560,7 +26561,7 @@
         <v>3454.2</v>
       </c>
       <c r="G835" s="22" t="s">
-        <v>1753</v>
+        <v>1750</v>
       </c>
       <c r="H835" s="13">
         <v>89000</v>
@@ -26584,7 +26585,7 @@
       </c>
       <c r="F836" s="9"/>
       <c r="G836" s="22" t="s">
-        <v>1753</v>
+        <v>1750</v>
       </c>
       <c r="H836" s="10">
         <v>43600.69</v>
@@ -26608,7 +26609,7 @@
       </c>
       <c r="F837" s="9"/>
       <c r="G837" s="22" t="s">
-        <v>1753</v>
+        <v>1750</v>
       </c>
       <c r="H837" s="10">
         <v>39474</v>
@@ -26632,7 +26633,7 @@
       </c>
       <c r="F838" s="9"/>
       <c r="G838" s="22" t="s">
-        <v>1753</v>
+        <v>1750</v>
       </c>
       <c r="H838" s="10">
         <v>4000</v>
@@ -26656,7 +26657,7 @@
       </c>
       <c r="F839" s="9"/>
       <c r="G839" s="22" t="s">
-        <v>1753</v>
+        <v>1750</v>
       </c>
       <c r="H839" s="10">
         <v>89000</v>
@@ -26682,7 +26683,7 @@
         <v>21.5</v>
       </c>
       <c r="G840" s="22" t="s">
-        <v>1753</v>
+        <v>1750</v>
       </c>
       <c r="H840" s="10">
         <v>39743.279999999999</v>
@@ -26708,7 +26709,7 @@
         <v>4322.57</v>
       </c>
       <c r="G841" s="22" t="s">
-        <v>1753</v>
+        <v>1750</v>
       </c>
       <c r="H841" s="10">
         <v>60956</v>
@@ -26734,7 +26735,7 @@
         <v>5799.15</v>
       </c>
       <c r="G842" s="22" t="s">
-        <v>1753</v>
+        <v>1750</v>
       </c>
       <c r="H842" s="10">
         <v>65116</v>
@@ -26758,7 +26759,7 @@
       </c>
       <c r="F843" s="9"/>
       <c r="G843" s="22" t="s">
-        <v>1753</v>
+        <v>1750</v>
       </c>
       <c r="H843" s="10">
         <v>51000</v>
@@ -26784,7 +26785,7 @@
         <v>1863</v>
       </c>
       <c r="G844" s="22" t="s">
-        <v>1753</v>
+        <v>1750</v>
       </c>
       <c r="H844" s="10">
         <v>63916</v>
@@ -26810,7 +26811,7 @@
         <v>3233.53</v>
       </c>
       <c r="G845" s="22" t="s">
-        <v>1753</v>
+        <v>1750</v>
       </c>
       <c r="H845" s="10">
         <v>39474</v>
@@ -26834,7 +26835,7 @@
       </c>
       <c r="F846" s="9"/>
       <c r="G846" s="22" t="s">
-        <v>1753</v>
+        <v>1750</v>
       </c>
       <c r="H846" s="13">
         <v>93000</v>
@@ -26858,7 +26859,7 @@
       </c>
       <c r="F847" s="9"/>
       <c r="G847" s="22" t="s">
-        <v>1753</v>
+        <v>1750</v>
       </c>
       <c r="H847" s="13">
         <v>73573.759999999995</v>
@@ -26884,7 +26885,7 @@
         <v>5125.18</v>
       </c>
       <c r="G848" s="22" t="s">
-        <v>1753</v>
+        <v>1750</v>
       </c>
       <c r="H848" s="10">
         <v>41032.300000000003</v>
@@ -26910,7 +26911,7 @@
         <v>11406.12</v>
       </c>
       <c r="G849" s="22" t="s">
-        <v>1753</v>
+        <v>1750</v>
       </c>
       <c r="H849" s="10">
         <v>64917</v>
@@ -26936,7 +26937,7 @@
         <v>9553.02</v>
       </c>
       <c r="G850" s="22" t="s">
-        <v>1753</v>
+        <v>1750</v>
       </c>
       <c r="H850" s="10">
         <v>62591</v>
@@ -26960,7 +26961,7 @@
       </c>
       <c r="F851" s="9"/>
       <c r="G851" s="22" t="s">
-        <v>1753</v>
+        <v>1750</v>
       </c>
       <c r="H851" s="10">
         <v>44822.1</v>
@@ -26986,7 +26987,7 @@
         <v>108</v>
       </c>
       <c r="G852" s="22" t="s">
-        <v>1753</v>
+        <v>1750</v>
       </c>
       <c r="H852" s="10">
         <v>64266</v>
@@ -27012,7 +27013,7 @@
         <v>5659.21</v>
       </c>
       <c r="G853" s="22" t="s">
-        <v>1753</v>
+        <v>1750</v>
       </c>
       <c r="H853" s="10">
         <v>45717.57</v>
@@ -27038,7 +27039,7 @@
         <v>10197.209999999999</v>
       </c>
       <c r="G854" s="22" t="s">
-        <v>1753</v>
+        <v>1750</v>
       </c>
       <c r="H854" s="10">
         <v>61181</v>
@@ -27064,7 +27065,7 @@
         <v>2938.08</v>
       </c>
       <c r="G855" s="22" t="s">
-        <v>1753</v>
+        <v>1750</v>
       </c>
       <c r="H855" s="10">
         <v>40532.32</v>
@@ -27090,7 +27091,7 @@
         <v>5075.34</v>
       </c>
       <c r="G856" s="22" t="s">
-        <v>1753</v>
+        <v>1750</v>
       </c>
       <c r="H856" s="10">
         <v>44001.98</v>
@@ -27116,7 +27117,7 @@
         <v>41158.080000000002</v>
       </c>
       <c r="G857" s="22" t="s">
-        <v>1753</v>
+        <v>1750</v>
       </c>
       <c r="H857" s="10">
         <v>66416</v>
@@ -27140,7 +27141,7 @@
       </c>
       <c r="F858" s="9"/>
       <c r="G858" s="22" t="s">
-        <v>1753</v>
+        <v>1750</v>
       </c>
       <c r="H858" s="10">
         <v>64691</v>
@@ -27166,7 +27167,7 @@
         <v>2104.16</v>
       </c>
       <c r="G859" s="22" t="s">
-        <v>1753</v>
+        <v>1750</v>
       </c>
       <c r="H859" s="10">
         <v>59852</v>
@@ -27192,7 +27193,7 @@
         <v>36</v>
       </c>
       <c r="G860" s="22" t="s">
-        <v>1753</v>
+        <v>1750</v>
       </c>
       <c r="H860" s="10">
         <v>62791</v>
@@ -27218,7 +27219,7 @@
         <v>16651.38</v>
       </c>
       <c r="G861" s="22" t="s">
-        <v>1753</v>
+        <v>1750</v>
       </c>
       <c r="H861" s="10">
         <v>64891</v>
@@ -27242,7 +27243,7 @@
       </c>
       <c r="F862" s="9"/>
       <c r="G862" s="22" t="s">
-        <v>1753</v>
+        <v>1750</v>
       </c>
       <c r="H862" s="10">
         <v>73324</v>
@@ -27268,7 +27269,7 @@
         <v>927</v>
       </c>
       <c r="G863" s="22" t="s">
-        <v>1753</v>
+        <v>1750</v>
       </c>
       <c r="H863" s="10">
         <v>58731.360000000001</v>
@@ -27294,7 +27295,7 @@
         <v>3609</v>
       </c>
       <c r="G864" s="22" t="s">
-        <v>1753</v>
+        <v>1750</v>
       </c>
       <c r="H864" s="10">
         <v>60856</v>
@@ -27320,7 +27321,7 @@
         <v>1809.8</v>
       </c>
       <c r="G865" s="22" t="s">
-        <v>1753</v>
+        <v>1750</v>
       </c>
       <c r="H865" s="10">
         <v>39474</v>
@@ -27346,7 +27347,7 @@
         <v>895.68</v>
       </c>
       <c r="G866" s="22" t="s">
-        <v>1753</v>
+        <v>1750</v>
       </c>
       <c r="H866" s="10">
         <v>65266</v>
@@ -27372,7 +27373,7 @@
         <v>17760.73</v>
       </c>
       <c r="G867" s="22" t="s">
-        <v>1753</v>
+        <v>1750</v>
       </c>
       <c r="H867" s="10">
         <v>73073.8</v>
@@ -27396,7 +27397,7 @@
       </c>
       <c r="F868" s="9"/>
       <c r="G868" s="22" t="s">
-        <v>1753</v>
+        <v>1750</v>
       </c>
       <c r="H868" s="10">
         <v>72998.64</v>
@@ -27422,7 +27423,7 @@
         <v>770.04</v>
       </c>
       <c r="G869" s="22" t="s">
-        <v>1753</v>
+        <v>1750</v>
       </c>
       <c r="H869" s="10">
         <v>39753.269999999997</v>
@@ -27446,7 +27447,7 @@
       </c>
       <c r="F870" s="9"/>
       <c r="G870" s="22" t="s">
-        <v>1753</v>
+        <v>1750</v>
       </c>
       <c r="H870" s="10">
         <v>39753.480000000003</v>
@@ -27472,7 +27473,7 @@
         <v>10416.64</v>
       </c>
       <c r="G871" s="22" t="s">
-        <v>1753</v>
+        <v>1750</v>
       </c>
       <c r="H871" s="10">
         <v>57431</v>
@@ -27496,7 +27497,7 @@
       </c>
       <c r="F872" s="9"/>
       <c r="G872" s="22" t="s">
-        <v>1753</v>
+        <v>1750</v>
       </c>
       <c r="H872" s="10">
         <v>38700</v>
@@ -27520,7 +27521,7 @@
       </c>
       <c r="F873" s="9"/>
       <c r="G873" s="22" t="s">
-        <v>1753</v>
+        <v>1750</v>
       </c>
       <c r="H873" s="10">
         <v>36112.67</v>
@@ -27546,7 +27547,7 @@
         <v>3298.21</v>
       </c>
       <c r="G874" s="22" t="s">
-        <v>1753</v>
+        <v>1750</v>
       </c>
       <c r="H874" s="10">
         <v>59431</v>
@@ -27570,7 +27571,7 @@
       </c>
       <c r="F875" s="9"/>
       <c r="G875" s="22" t="s">
-        <v>1753</v>
+        <v>1750</v>
       </c>
       <c r="H875" s="10">
         <v>56028.66</v>
@@ -27596,7 +27597,7 @@
         <v>4282.53</v>
       </c>
       <c r="G876" s="22" t="s">
-        <v>1753</v>
+        <v>1750</v>
       </c>
       <c r="H876" s="10">
         <v>45680.42</v>
@@ -27622,7 +27623,7 @@
         <v>1511.05</v>
       </c>
       <c r="G877" s="22" t="s">
-        <v>1753</v>
+        <v>1750</v>
       </c>
       <c r="H877" s="10">
         <v>39753.480000000003</v>
@@ -27648,7 +27649,7 @@
         <v>3630.5</v>
       </c>
       <c r="G878" s="22" t="s">
-        <v>1753</v>
+        <v>1750</v>
       </c>
       <c r="H878" s="10">
         <v>58106</v>
@@ -27674,7 +27675,7 @@
         <v>3789.4</v>
       </c>
       <c r="G879" s="22" t="s">
-        <v>1753</v>
+        <v>1750</v>
       </c>
       <c r="H879" s="10">
         <v>62131</v>
@@ -27700,7 +27701,7 @@
         <v>2475.61</v>
       </c>
       <c r="G880" s="22" t="s">
-        <v>1753</v>
+        <v>1750</v>
       </c>
       <c r="H880" s="10">
         <v>85000</v>
@@ -27726,7 +27727,7 @@
         <v>7275.68</v>
       </c>
       <c r="G881" s="22" t="s">
-        <v>1753</v>
+        <v>1750</v>
       </c>
       <c r="H881" s="10">
         <v>74449</v>
@@ -27752,7 +27753,7 @@
         <v>12125</v>
       </c>
       <c r="G882" s="22" t="s">
-        <v>1753</v>
+        <v>1750</v>
       </c>
       <c r="H882" s="10">
         <v>66166</v>
@@ -27776,7 +27777,7 @@
       </c>
       <c r="F883" s="9"/>
       <c r="G883" s="22" t="s">
-        <v>1753</v>
+        <v>1750</v>
       </c>
       <c r="H883" s="10">
         <v>43427</v>
@@ -27802,7 +27803,7 @@
         <v>10158.25</v>
       </c>
       <c r="G884" s="22" t="s">
-        <v>1753</v>
+        <v>1750</v>
       </c>
       <c r="H884" s="10">
         <v>63866</v>
@@ -27828,7 +27829,7 @@
         <v>4480.9799999999996</v>
       </c>
       <c r="G885" s="22" t="s">
-        <v>1753</v>
+        <v>1750</v>
       </c>
       <c r="H885" s="10">
         <v>56956</v>
@@ -27852,7 +27853,7 @@
       </c>
       <c r="F886" s="9"/>
       <c r="G886" s="22" t="s">
-        <v>1753</v>
+        <v>1750</v>
       </c>
       <c r="H886" s="10">
         <v>39474</v>
@@ -27878,7 +27879,7 @@
         <v>1372.57</v>
       </c>
       <c r="G887" s="22" t="s">
-        <v>1753</v>
+        <v>1750</v>
       </c>
       <c r="H887" s="10">
         <v>60131.46</v>
@@ -27904,7 +27905,7 @@
         <v>238.55</v>
       </c>
       <c r="G888" s="22" t="s">
-        <v>1753</v>
+        <v>1750</v>
       </c>
       <c r="H888" s="10">
         <v>42250</v>
@@ -27930,7 +27931,7 @@
         <v>1193.23</v>
       </c>
       <c r="G889" s="22" t="s">
-        <v>1753</v>
+        <v>1750</v>
       </c>
       <c r="H889" s="10">
         <v>43428.24</v>
@@ -27956,7 +27957,7 @@
         <v>270.52999999999997</v>
       </c>
       <c r="G890" s="22" t="s">
-        <v>1753</v>
+        <v>1750</v>
       </c>
       <c r="H890" s="10">
         <v>34102.980000000003</v>
@@ -27982,7 +27983,7 @@
         <v>1380.66</v>
       </c>
       <c r="G891" s="22" t="s">
-        <v>1753</v>
+        <v>1750</v>
       </c>
       <c r="H891" s="10">
         <v>43511.39</v>
@@ -28008,7 +28009,7 @@
         <v>6935.31</v>
       </c>
       <c r="G892" s="22" t="s">
-        <v>1753</v>
+        <v>1750</v>
       </c>
       <c r="H892" s="10">
         <v>63442</v>
@@ -28034,7 +28035,7 @@
         <v>549</v>
       </c>
       <c r="G893" s="22" t="s">
-        <v>1753</v>
+        <v>1750</v>
       </c>
       <c r="H893" s="10">
         <v>56956</v>
@@ -28060,7 +28061,7 @@
         <v>3244.37</v>
       </c>
       <c r="G894" s="22" t="s">
-        <v>1753</v>
+        <v>1750</v>
       </c>
       <c r="H894" s="10">
         <v>64867</v>
@@ -28086,7 +28087,7 @@
         <v>6291.2</v>
       </c>
       <c r="G895" s="22" t="s">
-        <v>1753</v>
+        <v>1750</v>
       </c>
       <c r="H895" s="10">
         <v>85000</v>
@@ -28112,7 +28113,7 @@
         <v>1191.49</v>
       </c>
       <c r="G896" s="22" t="s">
-        <v>1753</v>
+        <v>1750</v>
       </c>
       <c r="H896" s="10">
         <v>43478.14</v>
@@ -28138,7 +28139,7 @@
         <v>441</v>
       </c>
       <c r="G897" s="22" t="s">
-        <v>1753</v>
+        <v>1750</v>
       </c>
       <c r="H897" s="10">
         <v>58531</v>
@@ -28164,7 +28165,7 @@
         <v>216</v>
       </c>
       <c r="G898" s="22" t="s">
-        <v>1753</v>
+        <v>1750</v>
       </c>
       <c r="H898" s="10">
         <v>58956.26</v>
@@ -28190,7 +28191,7 @@
         <v>8137.6</v>
       </c>
       <c r="G899" s="22" t="s">
-        <v>1753</v>
+        <v>1750</v>
       </c>
       <c r="H899" s="10">
         <v>39474</v>
@@ -28216,7 +28217,7 @@
         <v>108</v>
       </c>
       <c r="G900" s="22" t="s">
-        <v>1753</v>
+        <v>1750</v>
       </c>
       <c r="H900" s="10">
         <v>65166</v>
@@ -28262,7 +28263,7 @@
       </c>
       <c r="F902" s="9"/>
       <c r="G902" s="22" t="s">
-        <v>1753</v>
+        <v>1750</v>
       </c>
       <c r="H902" s="10">
         <v>2100</v>
@@ -28286,7 +28287,7 @@
       </c>
       <c r="F903" s="9"/>
       <c r="G903" s="22" t="s">
-        <v>1753</v>
+        <v>1750</v>
       </c>
       <c r="H903" s="10">
         <v>2100</v>
@@ -28310,7 +28311,7 @@
       </c>
       <c r="F904" s="9"/>
       <c r="G904" s="22" t="s">
-        <v>1753</v>
+        <v>1750</v>
       </c>
       <c r="H904" s="10">
         <v>37000</v>
@@ -28334,7 +28335,7 @@
       </c>
       <c r="F905" s="9"/>
       <c r="G905" s="22" t="s">
-        <v>1753</v>
+        <v>1750</v>
       </c>
       <c r="H905" s="10">
         <v>2100</v>
@@ -28358,7 +28359,7 @@
       </c>
       <c r="F906" s="9"/>
       <c r="G906" s="22" t="s">
-        <v>1753</v>
+        <v>1750</v>
       </c>
       <c r="H906" s="10">
         <v>60078</v>
@@ -28382,7 +28383,7 @@
       </c>
       <c r="F907" s="9"/>
       <c r="G907" s="22" t="s">
-        <v>1753</v>
+        <v>1750</v>
       </c>
       <c r="H907" s="10">
         <v>60081.440000000002</v>
@@ -28406,7 +28407,7 @@
       </c>
       <c r="F908" s="9"/>
       <c r="G908" s="22" t="s">
-        <v>1753</v>
+        <v>1750</v>
       </c>
       <c r="H908" s="10">
         <v>45900</v>
@@ -28430,7 +28431,7 @@
       </c>
       <c r="F909" s="9"/>
       <c r="G909" s="22" t="s">
-        <v>1753</v>
+        <v>1750</v>
       </c>
       <c r="H909" s="10">
         <v>61004.480000000003</v>
@@ -28454,7 +28455,7 @@
       </c>
       <c r="F910" s="9"/>
       <c r="G910" s="22" t="s">
-        <v>1753</v>
+        <v>1750</v>
       </c>
       <c r="H910" s="10">
         <v>103446.24</v>
@@ -28596,7 +28597,7 @@
       </c>
       <c r="F916" s="9"/>
       <c r="G916" s="22" t="s">
-        <v>1753</v>
+        <v>1750</v>
       </c>
       <c r="H916" s="10">
         <v>59421.46</v>
@@ -28858,7 +28859,7 @@
       </c>
       <c r="F927" s="9"/>
       <c r="G927" s="22" t="s">
-        <v>1753</v>
+        <v>1750</v>
       </c>
       <c r="H927" s="13">
         <v>38975.800000000003</v>
@@ -29280,7 +29281,7 @@
       </c>
       <c r="F945" s="9"/>
       <c r="G945" s="22" t="s">
-        <v>1753</v>
+        <v>1750</v>
       </c>
       <c r="H945" s="10">
         <v>38319.64</v>
@@ -29304,7 +29305,7 @@
       </c>
       <c r="F946" s="9"/>
       <c r="G946" s="22" t="s">
-        <v>1753</v>
+        <v>1750</v>
       </c>
       <c r="H946" s="10">
         <v>57742.2</v>
@@ -29782,7 +29783,7 @@
       </c>
       <c r="F966" s="9"/>
       <c r="G966" s="22" t="s">
-        <v>1753</v>
+        <v>1750</v>
       </c>
       <c r="H966" s="10">
         <v>49794.38</v>
@@ -30114,7 +30115,7 @@
       </c>
       <c r="F980" s="9"/>
       <c r="G980" s="22" t="s">
-        <v>1753</v>
+        <v>1750</v>
       </c>
       <c r="H980" s="10">
         <v>50713.26</v>
@@ -30162,7 +30163,7 @@
       </c>
       <c r="F982" s="9"/>
       <c r="G982" s="22" t="s">
-        <v>1753</v>
+        <v>1750</v>
       </c>
       <c r="H982" s="10">
         <v>56827.21</v>
@@ -30186,7 +30187,7 @@
       </c>
       <c r="F983" s="9"/>
       <c r="G983" s="22" t="s">
-        <v>1753</v>
+        <v>1750</v>
       </c>
       <c r="H983" s="10">
         <v>81803.97</v>
@@ -30234,7 +30235,7 @@
       </c>
       <c r="F985" s="9"/>
       <c r="G985" s="22" t="s">
-        <v>1753</v>
+        <v>1750</v>
       </c>
       <c r="H985" s="10">
         <v>39331.660000000003</v>
@@ -30258,7 +30259,7 @@
       </c>
       <c r="F986" s="9"/>
       <c r="G986" s="22" t="s">
-        <v>1753</v>
+        <v>1750</v>
       </c>
       <c r="H986" s="10">
         <v>45900</v>
@@ -30282,7 +30283,7 @@
       </c>
       <c r="F987" s="9"/>
       <c r="G987" s="22" t="s">
-        <v>1753</v>
+        <v>1750</v>
       </c>
       <c r="H987" s="10">
         <v>54099.95</v>
@@ -30306,7 +30307,7 @@
       </c>
       <c r="F988" s="9"/>
       <c r="G988" s="22" t="s">
-        <v>1753</v>
+        <v>1750</v>
       </c>
       <c r="H988" s="10">
         <v>49667.82</v>
@@ -30330,7 +30331,7 @@
       </c>
       <c r="F989" s="9"/>
       <c r="G989" s="22" t="s">
-        <v>1753</v>
+        <v>1750</v>
       </c>
       <c r="H989" s="10">
         <v>43527.38</v>
@@ -30354,7 +30355,7 @@
       </c>
       <c r="F990" s="9"/>
       <c r="G990" s="22" t="s">
-        <v>1753</v>
+        <v>1750</v>
       </c>
       <c r="H990" s="10">
         <v>82264.850000000006</v>
@@ -30378,7 +30379,7 @@
       </c>
       <c r="F991" s="9"/>
       <c r="G991" s="22" t="s">
-        <v>1753</v>
+        <v>1750</v>
       </c>
       <c r="H991" s="10">
         <v>50744.09</v>
@@ -30402,7 +30403,7 @@
       </c>
       <c r="F992" s="9"/>
       <c r="G992" s="22" t="s">
-        <v>1753</v>
+        <v>1750</v>
       </c>
       <c r="H992" s="10">
         <v>45820.39</v>
@@ -30426,7 +30427,7 @@
       </c>
       <c r="F993" s="9"/>
       <c r="G993" s="22" t="s">
-        <v>1753</v>
+        <v>1750</v>
       </c>
       <c r="H993" s="10">
         <v>61526.5</v>
@@ -30450,7 +30451,7 @@
       </c>
       <c r="F994" s="9"/>
       <c r="G994" s="22" t="s">
-        <v>1753</v>
+        <v>1750</v>
       </c>
       <c r="H994" s="10">
         <v>37075.07</v>
@@ -30474,7 +30475,7 @@
       </c>
       <c r="F995" s="9"/>
       <c r="G995" s="22" t="s">
-        <v>1753</v>
+        <v>1750</v>
       </c>
       <c r="H995" s="10">
         <v>49317</v>
@@ -30498,7 +30499,7 @@
       </c>
       <c r="F996" s="9"/>
       <c r="G996" s="22" t="s">
-        <v>1753</v>
+        <v>1750</v>
       </c>
       <c r="H996" s="10">
         <v>42311.11</v>
@@ -30522,7 +30523,7 @@
       </c>
       <c r="F997" s="9"/>
       <c r="G997" s="22" t="s">
-        <v>1753</v>
+        <v>1750</v>
       </c>
       <c r="H997" s="10">
         <v>38375.14</v>
@@ -30644,7 +30645,7 @@
         <v>238.51</v>
       </c>
       <c r="G1002" s="22" t="s">
-        <v>1753</v>
+        <v>1750</v>
       </c>
       <c r="H1002" s="10">
         <v>58366.44</v>
@@ -30740,7 +30741,7 @@
       </c>
       <c r="F1006" s="9"/>
       <c r="G1006" s="22" t="s">
-        <v>1753</v>
+        <v>1750</v>
       </c>
       <c r="H1006" s="13">
         <v>72268.259999999995</v>
@@ -30910,7 +30911,7 @@
         <v>7834.6</v>
       </c>
       <c r="G1013" s="22" t="s">
-        <v>1753</v>
+        <v>1750</v>
       </c>
       <c r="H1013" s="10">
         <v>39923.519999999997</v>
@@ -30936,7 +30937,7 @@
         <v>5760.46</v>
       </c>
       <c r="G1014" s="22" t="s">
-        <v>1753</v>
+        <v>1750</v>
       </c>
       <c r="H1014" s="10">
         <v>31824</v>
@@ -30962,7 +30963,7 @@
         <v>3786.6</v>
       </c>
       <c r="G1015" s="22" t="s">
-        <v>1753</v>
+        <v>1750</v>
       </c>
       <c r="H1015" s="10">
         <v>36112.67</v>
@@ -30988,7 +30989,7 @@
         <v>341.16</v>
       </c>
       <c r="G1016" s="22" t="s">
-        <v>1753</v>
+        <v>1750</v>
       </c>
       <c r="H1016" s="10">
         <v>36113</v>
@@ -31014,7 +31015,7 @@
         <v>13.03</v>
       </c>
       <c r="G1017" s="22" t="s">
-        <v>1753</v>
+        <v>1750</v>
       </c>
       <c r="H1017" s="10">
         <v>36126</v>
@@ -31040,7 +31041,7 @@
         <v>862.26</v>
       </c>
       <c r="G1018" s="22" t="s">
-        <v>1753</v>
+        <v>1750</v>
       </c>
       <c r="H1018" s="10">
         <v>36112</v>
@@ -31066,7 +31067,7 @@
         <v>2647.43</v>
       </c>
       <c r="G1019" s="22" t="s">
-        <v>1753</v>
+        <v>1750</v>
       </c>
       <c r="H1019" s="10">
         <v>39924.980000000003</v>
@@ -31090,7 +31091,7 @@
       </c>
       <c r="F1020" s="9"/>
       <c r="G1020" s="22" t="s">
-        <v>1753</v>
+        <v>1750</v>
       </c>
       <c r="H1020" s="13">
         <v>39924.980000000003</v>
@@ -31116,7 +31117,7 @@
         <v>212.25</v>
       </c>
       <c r="G1021" s="22" t="s">
-        <v>1753</v>
+        <v>1750</v>
       </c>
       <c r="H1021" s="13">
         <v>36113</v>
@@ -31140,7 +31141,7 @@
       </c>
       <c r="F1022" s="9"/>
       <c r="G1022" s="22" t="s">
-        <v>1753</v>
+        <v>1750</v>
       </c>
       <c r="H1022" s="10">
         <v>42365.18</v>
@@ -31164,7 +31165,7 @@
       </c>
       <c r="F1023" s="9"/>
       <c r="G1023" s="22" t="s">
-        <v>1753</v>
+        <v>1750</v>
       </c>
       <c r="H1023" s="10">
         <v>40394.86</v>
@@ -31188,7 +31189,7 @@
       </c>
       <c r="F1024" s="9"/>
       <c r="G1024" s="22" t="s">
-        <v>1753</v>
+        <v>1750</v>
       </c>
       <c r="H1024" s="10">
         <v>54238.42</v>
@@ -31212,7 +31213,7 @@
       </c>
       <c r="F1025" s="9"/>
       <c r="G1025" s="22" t="s">
-        <v>1753</v>
+        <v>1750</v>
       </c>
       <c r="H1025" s="10">
         <v>42372.74</v>
@@ -31236,7 +31237,7 @@
       </c>
       <c r="F1026" s="9"/>
       <c r="G1026" s="22" t="s">
-        <v>1753</v>
+        <v>1750</v>
       </c>
       <c r="H1026" s="10">
         <v>40394</v>
@@ -31260,7 +31261,7 @@
       </c>
       <c r="F1027" s="18"/>
       <c r="G1027" s="22" t="s">
-        <v>1753</v>
+        <v>1750</v>
       </c>
       <c r="H1027" s="10">
         <v>82459.77</v>
@@ -31306,7 +31307,7 @@
       </c>
       <c r="F1029" s="9"/>
       <c r="G1029" s="22" t="s">
-        <v>1753</v>
+        <v>1750</v>
       </c>
       <c r="H1029" s="10">
         <v>108959.82</v>
@@ -31330,7 +31331,7 @@
       </c>
       <c r="F1030" s="9"/>
       <c r="G1030" s="22" t="s">
-        <v>1753</v>
+        <v>1750</v>
       </c>
       <c r="H1030" s="10">
         <v>51500</v>
@@ -31354,7 +31355,7 @@
       </c>
       <c r="F1031" s="9"/>
       <c r="G1031" s="22" t="s">
-        <v>1753</v>
+        <v>1750</v>
       </c>
       <c r="H1031" s="10">
         <v>51000</v>
@@ -31380,7 +31381,7 @@
         <v>27.67</v>
       </c>
       <c r="G1032" s="22" t="s">
-        <v>1753</v>
+        <v>1750</v>
       </c>
       <c r="H1032" s="10">
         <v>38375.129999999997</v>
@@ -31404,7 +31405,7 @@
       </c>
       <c r="F1033" s="9"/>
       <c r="G1033" s="22" t="s">
-        <v>1753</v>
+        <v>1750</v>
       </c>
       <c r="H1033" s="10">
         <v>40543.78</v>
@@ -31592,7 +31593,7 @@
       </c>
       <c r="F1041" s="9"/>
       <c r="G1041" s="22" t="s">
-        <v>1753</v>
+        <v>1750</v>
       </c>
       <c r="H1041" s="10">
         <v>63960.94</v>
@@ -31712,7 +31713,7 @@
       </c>
       <c r="F1046" s="9"/>
       <c r="G1046" s="22" t="s">
-        <v>1753</v>
+        <v>1750</v>
       </c>
       <c r="H1046" s="10">
         <v>37947.75</v>
@@ -31760,7 +31761,7 @@
       </c>
       <c r="F1048" s="9"/>
       <c r="G1048" s="22" t="s">
-        <v>1753</v>
+        <v>1750</v>
       </c>
       <c r="H1048" s="13">
         <v>64203.08</v>
@@ -31902,7 +31903,7 @@
       </c>
       <c r="F1054" s="9"/>
       <c r="G1054" s="22" t="s">
-        <v>1753</v>
+        <v>1750</v>
       </c>
       <c r="H1054" s="10">
         <v>74430.13</v>
@@ -31974,7 +31975,7 @@
       </c>
       <c r="F1057" s="9"/>
       <c r="G1057" s="22" t="s">
-        <v>1753</v>
+        <v>1750</v>
       </c>
       <c r="H1057" s="10">
         <v>52257.72</v>
@@ -31998,7 +31999,7 @@
       </c>
       <c r="F1058" s="9"/>
       <c r="G1058" s="22" t="s">
-        <v>1753</v>
+        <v>1750</v>
       </c>
       <c r="H1058" s="10">
         <v>46500</v>
@@ -32022,7 +32023,7 @@
       </c>
       <c r="F1059" s="9"/>
       <c r="G1059" s="22" t="s">
-        <v>1753</v>
+        <v>1750</v>
       </c>
       <c r="H1059" s="10">
         <v>51603.839999999997</v>
@@ -32046,7 +32047,7 @@
       </c>
       <c r="F1060" s="9"/>
       <c r="G1060" s="22" t="s">
-        <v>1753</v>
+        <v>1750</v>
       </c>
       <c r="H1060" s="10">
         <v>86422.88</v>
@@ -32070,7 +32071,7 @@
       </c>
       <c r="F1061" s="9"/>
       <c r="G1061" s="22" t="s">
-        <v>1753</v>
+        <v>1750</v>
       </c>
       <c r="H1061" s="10">
         <v>49419</v>
@@ -32116,7 +32117,7 @@
       </c>
       <c r="F1063" s="9"/>
       <c r="G1063" s="22" t="s">
-        <v>1753</v>
+        <v>1750</v>
       </c>
       <c r="H1063" s="10">
         <v>74460</v>
@@ -32142,7 +32143,7 @@
         <v>138.72999999999999</v>
       </c>
       <c r="G1064" s="22" t="s">
-        <v>1753</v>
+        <v>1750</v>
       </c>
       <c r="H1064" s="10">
         <v>47677.02</v>
@@ -32168,7 +32169,7 @@
         <v>552.37</v>
       </c>
       <c r="G1065" s="22" t="s">
-        <v>1753</v>
+        <v>1750</v>
       </c>
       <c r="H1065" s="10">
         <v>50226.42</v>
@@ -32192,7 +32193,7 @@
       </c>
       <c r="F1066" s="9"/>
       <c r="G1066" s="22" t="s">
-        <v>1753</v>
+        <v>1750</v>
       </c>
       <c r="H1066" s="10">
         <v>52398.39</v>
@@ -32216,7 +32217,7 @@
       </c>
       <c r="F1067" s="9"/>
       <c r="G1067" s="22" t="s">
-        <v>1753</v>
+        <v>1750</v>
       </c>
       <c r="H1067" s="10">
         <v>48987.99</v>
@@ -32240,7 +32241,7 @@
       </c>
       <c r="F1068" s="9"/>
       <c r="G1068" s="22" t="s">
-        <v>1753</v>
+        <v>1750</v>
       </c>
       <c r="H1068" s="10">
         <v>55068.07</v>
@@ -32264,7 +32265,7 @@
       </c>
       <c r="F1069" s="9"/>
       <c r="G1069" s="22" t="s">
-        <v>1753</v>
+        <v>1750</v>
       </c>
       <c r="H1069" s="10">
         <v>84744.5</v>
@@ -32288,7 +32289,7 @@
       </c>
       <c r="F1070" s="9"/>
       <c r="G1070" s="22" t="s">
-        <v>1753</v>
+        <v>1750</v>
       </c>
       <c r="H1070" s="10">
         <v>57508.08</v>
@@ -32312,7 +32313,7 @@
       </c>
       <c r="F1071" s="9"/>
       <c r="G1071" s="22" t="s">
-        <v>1753</v>
+        <v>1750</v>
       </c>
       <c r="H1071" s="10">
         <v>44500</v>
@@ -32336,7 +32337,7 @@
       </c>
       <c r="F1072" s="9"/>
       <c r="G1072" s="22" t="s">
-        <v>1753</v>
+        <v>1750</v>
       </c>
       <c r="H1072" s="10">
         <v>50165.120000000003</v>
@@ -32362,7 +32363,7 @@
         <v>635.91</v>
       </c>
       <c r="G1073" s="22" t="s">
-        <v>1753</v>
+        <v>1750</v>
       </c>
       <c r="H1073" s="10">
         <v>48987.99</v>
@@ -32386,7 +32387,7 @@
       </c>
       <c r="F1074" s="9"/>
       <c r="G1074" s="22" t="s">
-        <v>1753</v>
+        <v>1750</v>
       </c>
       <c r="H1074" s="10">
         <v>94133.119999999995</v>
@@ -32410,7 +32411,7 @@
       </c>
       <c r="F1075" s="9"/>
       <c r="G1075" s="22" t="s">
-        <v>1753</v>
+        <v>1750</v>
       </c>
       <c r="H1075" s="10">
         <v>59754.62</v>
@@ -32434,7 +32435,7 @@
       </c>
       <c r="F1076" s="9"/>
       <c r="G1076" s="22" t="s">
-        <v>1753</v>
+        <v>1750</v>
       </c>
       <c r="H1076" s="10">
         <v>45780.72</v>
@@ -32458,7 +32459,7 @@
       </c>
       <c r="F1077" s="9"/>
       <c r="G1077" s="22" t="s">
-        <v>1753</v>
+        <v>1750</v>
       </c>
       <c r="H1077" s="10">
         <v>65914.66</v>
@@ -32574,7 +32575,7 @@
       </c>
       <c r="F1082" s="9"/>
       <c r="G1082" s="22" t="s">
-        <v>1753</v>
+        <v>1750</v>
       </c>
       <c r="H1082" s="10">
         <v>72162.14</v>
@@ -32598,7 +32599,7 @@
       </c>
       <c r="F1083" s="9"/>
       <c r="G1083" s="22" t="s">
-        <v>1753</v>
+        <v>1750</v>
       </c>
       <c r="H1083" s="10">
         <v>53015.85</v>
@@ -32622,7 +32623,7 @@
       </c>
       <c r="F1084" s="9"/>
       <c r="G1084" s="22" t="s">
-        <v>1753</v>
+        <v>1750</v>
       </c>
       <c r="H1084" s="10">
         <v>48960</v>
@@ -32668,7 +32669,7 @@
       </c>
       <c r="F1086" s="9"/>
       <c r="G1086" s="22" t="s">
-        <v>1753</v>
+        <v>1750</v>
       </c>
       <c r="H1086" s="10">
         <v>41554</v>
@@ -32824,7 +32825,7 @@
       </c>
       <c r="F1093" s="9"/>
       <c r="G1093" s="22" t="s">
-        <v>1753</v>
+        <v>1750</v>
       </c>
       <c r="H1093" s="10">
         <v>51000</v>
@@ -32896,7 +32897,7 @@
       </c>
       <c r="F1096" s="9"/>
       <c r="G1096" s="22" t="s">
-        <v>1753</v>
+        <v>1750</v>
       </c>
       <c r="H1096" s="13">
         <v>51434.31</v>
@@ -32920,7 +32921,7 @@
       </c>
       <c r="F1097" s="9"/>
       <c r="G1097" s="22" t="s">
-        <v>1753</v>
+        <v>1750</v>
       </c>
       <c r="H1097" s="13">
         <v>49158.9</v>
@@ -32944,7 +32945,7 @@
       </c>
       <c r="F1098" s="9"/>
       <c r="G1098" s="22" t="s">
-        <v>1753</v>
+        <v>1750</v>
       </c>
       <c r="H1098" s="10">
         <v>53499.8</v>
@@ -32968,7 +32969,7 @@
       </c>
       <c r="F1099" s="9"/>
       <c r="G1099" s="22" t="s">
-        <v>1753</v>
+        <v>1750</v>
       </c>
       <c r="H1099" s="10">
         <v>50181.55</v>
@@ -32992,7 +32993,7 @@
       </c>
       <c r="F1100" s="9"/>
       <c r="G1100" s="22" t="s">
-        <v>1753</v>
+        <v>1750</v>
       </c>
       <c r="H1100" s="10">
         <v>58000</v>
@@ -33130,7 +33131,7 @@
         <v>5987.17</v>
       </c>
       <c r="G1106" s="22" t="s">
-        <v>1753</v>
+        <v>1750</v>
       </c>
       <c r="H1106" s="10">
         <v>51468.59</v>
@@ -33274,7 +33275,7 @@
         <v>6650.34</v>
       </c>
       <c r="G1112" s="22" t="s">
-        <v>1753</v>
+        <v>1750</v>
       </c>
       <c r="H1112" s="10">
         <v>42414.66</v>
@@ -33416,7 +33417,7 @@
       </c>
       <c r="F1118" s="9"/>
       <c r="G1118" s="22" t="s">
-        <v>1753</v>
+        <v>1750</v>
       </c>
       <c r="H1118" s="10">
         <v>59691.91</v>
@@ -33440,7 +33441,7 @@
       </c>
       <c r="F1119" s="9"/>
       <c r="G1119" s="22" t="s">
-        <v>1753</v>
+        <v>1750</v>
       </c>
       <c r="H1119" s="10">
         <v>74374.039999999994</v>
@@ -33750,7 +33751,7 @@
         <v>945.69</v>
       </c>
       <c r="G1132" s="22" t="s">
-        <v>1753</v>
+        <v>1750</v>
       </c>
       <c r="H1132" s="10">
         <v>42301.82</v>
@@ -33798,7 +33799,7 @@
       </c>
       <c r="F1134" s="9"/>
       <c r="G1134" s="22" t="s">
-        <v>1753</v>
+        <v>1750</v>
       </c>
       <c r="H1134" s="10">
         <v>54055.89</v>
@@ -33822,7 +33823,7 @@
       </c>
       <c r="F1135" s="9"/>
       <c r="G1135" s="22" t="s">
-        <v>1753</v>
+        <v>1750</v>
       </c>
       <c r="H1135" s="10">
         <v>42448.32</v>
@@ -33964,7 +33965,7 @@
       </c>
       <c r="F1141" s="9"/>
       <c r="G1141" s="22" t="s">
-        <v>1753</v>
+        <v>1750</v>
       </c>
       <c r="H1141" s="13">
         <v>61950.59</v>
@@ -33990,7 +33991,7 @@
         <v>204.22</v>
       </c>
       <c r="G1142" s="22" t="s">
-        <v>1753</v>
+        <v>1750</v>
       </c>
       <c r="H1142" s="10">
         <v>51488.41</v>
@@ -34156,7 +34157,7 @@
       </c>
       <c r="F1149" s="9"/>
       <c r="G1149" s="22" t="s">
-        <v>1753</v>
+        <v>1750</v>
       </c>
       <c r="H1149" s="10">
         <v>53528.26</v>
@@ -34230,7 +34231,7 @@
         <v>1721.04</v>
       </c>
       <c r="G1152" s="22" t="s">
-        <v>1753</v>
+        <v>1750</v>
       </c>
       <c r="H1152" s="10">
         <v>56825.45</v>
@@ -34462,7 +34463,7 @@
       </c>
       <c r="F1162" s="9"/>
       <c r="G1162" s="22" t="s">
-        <v>1753</v>
+        <v>1750</v>
       </c>
       <c r="H1162" s="10">
         <v>50680.51</v>
@@ -34512,7 +34513,7 @@
         <v>3503.55</v>
       </c>
       <c r="G1164" s="22" t="s">
-        <v>1753</v>
+        <v>1750</v>
       </c>
       <c r="H1164" s="10">
         <v>60310.38</v>
@@ -34608,7 +34609,7 @@
         <v>3143.38</v>
       </c>
       <c r="G1168" s="22" t="s">
-        <v>1753</v>
+        <v>1750</v>
       </c>
       <c r="H1168" s="10">
         <v>61441.68</v>
@@ -34658,7 +34659,7 @@
         <v>926.73</v>
       </c>
       <c r="G1170" s="22" t="s">
-        <v>1753</v>
+        <v>1750</v>
       </c>
       <c r="H1170" s="13">
         <v>53484.88</v>
@@ -34684,7 +34685,7 @@
         <v>499.79</v>
       </c>
       <c r="G1171" s="22" t="s">
-        <v>1753</v>
+        <v>1750</v>
       </c>
       <c r="H1171" s="10">
         <v>52304.72</v>
@@ -34780,7 +34781,7 @@
       </c>
       <c r="F1175" s="9"/>
       <c r="G1175" s="22" t="s">
-        <v>1753</v>
+        <v>1750</v>
       </c>
       <c r="H1175" s="10">
         <v>51832.37</v>
@@ -34876,7 +34877,7 @@
       </c>
       <c r="F1179" s="9"/>
       <c r="G1179" s="22" t="s">
-        <v>1753</v>
+        <v>1750</v>
       </c>
       <c r="H1179" s="10">
         <v>42531.53</v>
@@ -34900,7 +34901,7 @@
       </c>
       <c r="F1180" s="9"/>
       <c r="G1180" s="22" t="s">
-        <v>1753</v>
+        <v>1750</v>
       </c>
       <c r="H1180" s="10">
         <v>80121.2</v>
@@ -35182,7 +35183,7 @@
         <v>1669.69</v>
       </c>
       <c r="G1192" s="22" t="s">
-        <v>1753</v>
+        <v>1750</v>
       </c>
       <c r="H1192" s="10">
         <v>51000</v>
@@ -35229,7 +35230,7 @@
         <v>1316.56</v>
       </c>
       <c r="G1194" s="22" t="s">
-        <v>1753</v>
+        <v>1750</v>
       </c>
       <c r="H1194" s="15">
         <v>4300</v>
@@ -35252,7 +35253,7 @@
         <v>3949.68</v>
       </c>
       <c r="G1195" s="22" t="s">
-        <v>1753</v>
+        <v>1750</v>
       </c>
       <c r="H1195" s="15">
         <v>4300</v>
@@ -35275,7 +35276,7 @@
         <v>3949.68</v>
       </c>
       <c r="G1196" s="22" t="s">
-        <v>1753</v>
+        <v>1750</v>
       </c>
       <c r="H1196" s="15">
         <v>4300</v>
@@ -35298,7 +35299,7 @@
         <v>3949.68</v>
       </c>
       <c r="G1197" s="22" t="s">
-        <v>1753</v>
+        <v>1750</v>
       </c>
       <c r="H1197" s="15">
         <v>4300</v>
@@ -35321,7 +35322,7 @@
         <v>3949.68</v>
       </c>
       <c r="G1198" s="22" t="s">
-        <v>1753</v>
+        <v>1750</v>
       </c>
       <c r="H1198" s="15">
         <v>4300</v>
@@ -35344,7 +35345,7 @@
         <v>3949.68</v>
       </c>
       <c r="G1199" s="22" t="s">
-        <v>1753</v>
+        <v>1750</v>
       </c>
       <c r="H1199" s="15">
         <v>4300</v>
@@ -35367,7 +35368,7 @@
         <v>3949.68</v>
       </c>
       <c r="G1200" s="22" t="s">
-        <v>1753</v>
+        <v>1750</v>
       </c>
       <c r="H1200" s="15">
         <v>4300</v>
@@ -35390,7 +35391,7 @@
         <v>2303.98</v>
       </c>
       <c r="G1201" s="22" t="s">
-        <v>1753</v>
+        <v>1750</v>
       </c>
       <c r="H1201" s="15">
         <v>4300</v>
